--- a/_report_configuration.xlsx
+++ b/_report_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/analysis/global_scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2659" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D9166CC-EFCF-4CC8-A41B-9FF6981A1C58}"/>
+  <xr:revisionPtr revIDLastSave="2706" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519D5011-1A61-4968-ABF5-CDDB4C5C9F0E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="2043">
   <si>
     <t>name</t>
   </si>
@@ -6245,10 +6245,46 @@
 ยั่งยืนสำหรับ 25 เมืองใน 19 ประเทศ</t>
   </si>
   <si>
-    <t>{"study_citations":"||The Lancet Global Health. May 2022. Volume 10. Special Issue 2. Urban Design, Transport and Health Series II. S1-S5.","citation_doi":"Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally ({language}). {city_doi}","citations":"{citation_series}: {study_citations}||{citation_population}: Schiavina, M. et al. (2019): GHS population grid multitemporal (1975, 1990, 2000, 2015) R2019A. European Commission, Joint Research Centre (JRC). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 |{citation_boundaries}: Florczyk, A. et al. (2019): GHS Urban Centre Database 2015, multitemporal and multidimensional attributes, R2019A. European Commission, Joint Research Centre (JRC). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e |{citation_features}: OpenStreetMap contributors. Openstreetmap (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent |{citation_colour}: Crameri, F. (2018). Scientific colour-maps (3.0.4). Zenodo. https://doi.org/10.5281/zenodo.1287763"}</t>
-  </si>
-  <si>
     <t>2018 Scholar44 (Wikimedia Commons) under CC0 1.0 Universal licence</t>
+  </si>
+  <si>
+    <t>{"study_citations":"||The Lancet Global Health. May 2022. Volume 10. Special Issue 2. Urban Design, Transport and Health Series II. S1-S5.","citation_doi":"Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally ({vernacular}). {city_doi}","citations":"{citation_series}: {study_citations}||{citation_population}: Schiavina, M. et al. (2019): GHS population grid multitemporal (1975, 1990, 2000, 2015) R2019A. European Commission, Joint Research Centre (JRC). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 |{citation_boundaries}: Florczyk, A. et al. (2019): GHS Urban Centre Database 2015, multitemporal and multidimensional attributes, R2019A. European Commission, Joint Research Centre (JRC). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e |{citation_features}: OpenStreetMap contributors. Openstreetmap (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent |{citation_colour}: Crameri, F. (2018). Scientific colour-maps (3.0.4). Zenodo. https://doi.org/10.5281/zenodo.1287763"}</t>
+  </si>
+  <si>
+    <t>{"German":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Vietnamese":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Thai":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Tamil":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Dutch":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Czech":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Danish":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Catalan":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}","Spanish - Spain":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Portuguese - Brazil":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Portuguese - Portugal":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Spanish - Mexico":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>{"Hausa":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_series_line1}:{title_series_line2} ({city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally, {language}; translated by {translation_names}). {city_doi}'}"}</t>
   </si>
 </sst>
 </file>
@@ -7198,16 +7234,6 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
@@ -7371,6 +7397,16 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7700,7 +7736,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7814,10 +7850,6 @@
       <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="str">
-        <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(template_web!A2,languages!B:B,0)),"")</f>
-        <v>{city}, {country}</v>
-      </c>
       <c r="Q2">
         <v>5</v>
       </c>
@@ -7878,10 +7910,6 @@
       <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="str">
-        <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(template_web!A3,languages!B:B,0)),"")</f>
-        <v>{city}, {country}</v>
-      </c>
       <c r="Q3">
         <v>5</v>
       </c>
@@ -7942,10 +7970,6 @@
       <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="str">
-        <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(template_web!A4,languages!B:B,0)),"")</f>
-        <v>{city}, {country}</v>
-      </c>
       <c r="Q4">
         <v>5</v>
       </c>
@@ -8005,10 +8029,6 @@
       </c>
       <c r="O5" t="s">
         <v>22</v>
-      </c>
-      <c r="P5" t="str">
-        <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(template_web!A5,languages!B:B,0)),"")</f>
-        <v>{city}, {country}</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -19278,10 +19298,10 @@
   <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19395,10 +19415,6 @@
       <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="str">
-        <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(template_print!A2,languages!B:B,0)),"")</f>
-        <v>{city}, {country}</v>
-      </c>
       <c r="Q2">
         <v>5</v>
       </c>
@@ -19459,10 +19475,6 @@
       <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="str">
-        <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(template_print!A3,languages!B:B,0)),"")</f>
-        <v>{city}, {country}</v>
-      </c>
       <c r="Q3">
         <v>5</v>
       </c>
@@ -19523,10 +19535,6 @@
       <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="str">
-        <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(template_print!A4,languages!B:B,0)),"")</f>
-        <v>{city}, {country}</v>
-      </c>
       <c r="Q4">
         <v>5</v>
       </c>
@@ -19586,10 +19594,6 @@
       </c>
       <c r="O5" t="s">
         <v>22</v>
-      </c>
-      <c r="P5" t="str">
-        <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(template_print!A5,languages!B:B,0)),"")</f>
-        <v>{city}, {country}</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -30844,7 +30848,7 @@
   </sheetData>
   <autoFilter ref="A1:T192" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A130:A131">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30859,10 +30863,10 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S88" sqref="S88"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39325,25 +39329,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B107:D109 L98:L99 N98:V99 G107:J109 L92:V97 B1:V86 K124:K171 B92:J106 L100:V120 L123:V171 B110:J120 B123:J171 K92:K120 B121:V123 B88:V91">
-    <cfRule type="containsBlanks" dxfId="23" priority="46">
+    <cfRule type="containsBlanks" dxfId="22" priority="46">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98:M99">
-    <cfRule type="containsBlanks" dxfId="22" priority="4">
+    <cfRule type="containsBlanks" dxfId="21" priority="4">
       <formula>LEN(TRIM(M98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B86 B88:B171">
-    <cfRule type="duplicateValues" dxfId="21" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:V87">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="19" priority="1">
       <formula>LEN(TRIM(B87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -39358,10 +39362,10 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39429,10 +39433,10 @@
         <v>1932</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
@@ -39457,11 +39461,11 @@
       <c r="H3" s="48" t="s">
         <v>1945</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>181</v>
       </c>
@@ -39486,8 +39490,8 @@
       <c r="H4" s="48" t="s">
         <v>1933</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>1629</v>
+      <c r="I4" s="3" t="s">
+        <v>2041</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -39602,8 +39606,8 @@
       <c r="H8" s="48" t="s">
         <v>1941</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>1629</v>
+      <c r="I8" s="3" t="s">
+        <v>2039</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -39635,7 +39639,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>192</v>
       </c>
@@ -39660,11 +39664,11 @@
       <c r="H10" s="48" t="s">
         <v>1952</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>180</v>
       </c>
@@ -39689,11 +39693,11 @@
       <c r="H11" s="48" t="s">
         <v>1956</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>193</v>
       </c>
@@ -39718,8 +39722,8 @@
       <c r="H12" s="48" t="s">
         <v>1948</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>1629</v>
+      <c r="I12" s="3" t="s">
+        <v>2032</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -39747,11 +39751,11 @@
       <c r="H13" s="48" t="s">
         <v>1949</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I13" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>195</v>
       </c>
@@ -39776,8 +39780,8 @@
       <c r="H14" s="48" t="s">
         <v>1950</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>1629</v>
+      <c r="I14" s="3" t="s">
+        <v>2035</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -39805,11 +39809,11 @@
       <c r="H15" s="48" t="s">
         <v>1953</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>197</v>
       </c>
@@ -39834,8 +39838,8 @@
       <c r="H16" s="48" t="s">
         <v>1943</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>1629</v>
+      <c r="I16" s="3" t="s">
+        <v>2036</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -39863,11 +39867,11 @@
       <c r="H17" s="48" t="s">
         <v>1951</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>199</v>
       </c>
@@ -39892,11 +39896,11 @@
       <c r="H18" s="48" t="s">
         <v>1934</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>200</v>
       </c>
@@ -39921,11 +39925,11 @@
       <c r="H19" s="48" t="s">
         <v>1955</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I19" s="3" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>201</v>
       </c>
@@ -39950,11 +39954,11 @@
       <c r="H20" s="48" t="s">
         <v>1938</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>202</v>
       </c>
@@ -39979,8 +39983,8 @@
       <c r="H21" s="48" t="s">
         <v>1937</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>1629</v>
+      <c r="I21" s="3" t="s">
+        <v>2038</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -40012,7 +40016,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>204</v>
       </c>
@@ -40037,8 +40041,8 @@
       <c r="H23" s="48" t="s">
         <v>1946</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>1629</v>
+      <c r="I23" s="3" t="s">
+        <v>2040</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="300" x14ac:dyDescent="0.25">
@@ -40055,7 +40059,7 @@
         <v>2010</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>1982</v>
@@ -40602,8 +40606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E5A34-E8C6-471F-BB3C-81719394AD1E}">
   <dimension ref="A2:U29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41360,11 +41364,11 @@
       <c r="A14" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="52" t="str">
+      <c r="B14" s="35" t="str">
         <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A14,city_details!A:A,0))</f>
         <v>Graz, Austria-14.09.2020: people relaxing outdoor in a park near Mur river, in summer, Styria region, Austria. Selective focus.</v>
       </c>
-      <c r="C14" s="52" t="str">
+      <c r="C14" s="35" t="str">
         <f>INDEX(city_details!F:F,MATCH('City tasks for scorecards'!A14,city_details!A:A,0))</f>
         <v>Graz, Austria - June 16, 2020 - cyclists and pedestrians in front of modern tram street car next to traditional Austrian houses</v>
       </c>
@@ -41488,11 +41492,11 @@
       <c r="A16" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="52" t="str">
+      <c r="B16" s="35" t="str">
         <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A16,city_details!A:A,0))</f>
         <v>BERN, SWITZERLAND - APRIL 15, 2018: Street view on Kramgasse with fountain and clock tower in the old town of Bern city.It is a popular shopping street and medieval city centre of Bern, Switzerland</v>
       </c>
-      <c r="C16" s="52" t="str">
+      <c r="C16" s="35" t="str">
         <f>INDEX(city_details!F:F,MATCH('City tasks for scorecards'!A16,city_details!A:A,0))</f>
         <v>Bern Switzerland , 27 June 2020 : Pedestrian street with cafe terrace full of people during summer 2020 in Bern old town Switzerland</v>
       </c>
@@ -41620,11 +41624,11 @@
       <c r="A18" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="52" t="str">
+      <c r="B18" s="35" t="str">
         <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A18,city_details!A:A,0))</f>
         <v>COLOGNE,NORTH RHINE WESTPHALIA,GERMANY - FEBRUARY 14 2021: People ice skating in German park at winter</v>
       </c>
-      <c r="C18" s="52" t="str">
+      <c r="C18" s="35" t="str">
         <f>INDEX(city_details!F:F,MATCH('City tasks for scorecards'!A18,city_details!A:A,0))</f>
         <v>Cologne, Germany - 15 June 2019: The Great Saint Martin Church and Colorful buildings nearby riverside of Hohenzollern Bridge in Cologne.</v>
       </c>
@@ -42075,8 +42079,14 @@
       <c r="A25" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="35" t="str">
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A25,city_details!A:A,0))</f>
+        <v>This photo of an Adelaide tram was taken at the southern end of King William Street, Adelaide, South Australia, looking south across South Terrace. An Adelaide Metro tram (Alstom Citadis 302 model, number 206) is at the northern end of the 9.3 kilometre sole-use reservation of the Adelaide–Glenelg tram line. From here it will leave the reservation and, crossing South Terrace, run on the street tramlines of central Adelaide.</v>
+      </c>
+      <c r="C25" s="35" t="str">
+        <f>INDEX(city_details!F:F,MATCH('City tasks for scorecards'!A25,city_details!A:A,0))</f>
+        <v>Adelaide City Skyline during 2022 Australia Day Celebrations</v>
+      </c>
       <c r="D25" s="41" t="s">
         <v>818</v>
       </c>
@@ -42337,68 +42347,68 @@
     <mergeCell ref="E2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C28">
-    <cfRule type="containsBlanks" dxfId="18" priority="18">
+    <cfRule type="containsBlanks" dxfId="17" priority="18">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P28">
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",P4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Auto">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Auto">
       <formula>NOT(ISERROR(SEARCH("Auto",P4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",P4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D28">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Auto">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Auto">
       <formula>NOT(ISERROR(SEARCH("Auto",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:T28">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"???"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Partial"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Auto">
+    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="Auto">
       <formula>NOT(ISERROR(SEARCH("Auto",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Auto">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Auto">
       <formula>NOT(ISERROR(SEARCH("Auto",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",N9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Auto">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Auto">
       <formula>NOT(ISERROR(SEARCH("Auto",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",T13)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_report_configuration.xlsx
+++ b/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/analysis/global_scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3122" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2099B4A6-57FC-4F3E-9A87-2E4B512FEB1A}"/>
+  <xr:revisionPtr revIDLastSave="3128" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F644FC8-1775-4DED-8EDE-B797BB5A9D4A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_web" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5277" uniqueCount="2052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5277" uniqueCount="2051">
   <si>
     <t>name</t>
   </si>
@@ -5623,9 +5623,6 @@
   </si>
   <si>
     <t>To be updated on sunny day</t>
-  </si>
-  <si>
-    <t>partial</t>
   </si>
   <si>
     <t>{"English":"{'local_collaborators_names':'Claire Cleland, Sara Ferguson &amp; Ruth Hunter||For further information, please contact ruth.hunter@qub.ac.uk'}"}</t>
@@ -6184,9 +6181,6 @@
     <t>2018 Scholar44 (Wikimedia Commons) under CC0 1.0 Universal licence</t>
   </si>
   <si>
-    <t>{"study_citations":"||The Lancet Global Health. May 2022. Volume 10. Special Issue 2. Urban Design, Transport and Health Series II. S1-S5.","citation_doi":"Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally ({vernacular}). {city_doi}","citations":"{citation_series}: {study_citations}||{citation_population}: Schiavina, M. et al. (2019): GHS population grid multitemporal (1975, 1990, 2000, 2015) R2019A. European Commission, Joint Research Centre (JRC). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 |{citation_boundaries}: Florczyk, A. et al. (2019): GHS Urban Centre Database 2015, multitemporal and multidimensional attributes, R2019A. European Commission, Joint Research Centre (JRC). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e |{citation_features}: OpenStreetMap contributors. Openstreetmap (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent |{citation_colour}: Crameri, F. (2018). Scientific colour-maps (3.0.4). Zenodo. https://doi.org/10.5281/zenodo.1287763"}</t>
-  </si>
-  <si>
     <t>The availability of urban and transport policies supporting health and sustainability in Adelaide is above average compared with other cities studied. However, the quality of those policies is below average. Adelaide does not appear to have transport planning policies incorporating health-focussed actions or air pollution policies related to transport or land use planning. Nor does it require health impact assessement of transport and land use interventions. Adelaide's targets for walking and cycling participation and public transport use are too low to be consistent with healthy cities evidence. Hence, relative to the 25 cities in this international study, the vast majority of neighbourhoods in Adelaide have low walkability. In terms of thresholds to achieve WHO targets to increase physical activity, no neighbourhoods in Adelaide achieve population density thresholds and only 13% achieve street connectivity thresholds. Only 54% of residents have nearby access to public transport stops with regular services. The majority of residents have some public open space within 500m. However, this drops to only 58% who have access to larger public open space, and access is spatially patterned. Compared with the other cities studied, the proportion of the population in Adelaide with access within 500m to a food market, convenience store and, to a lesser extent, public transport stop with a regular service is below average.</t>
   </si>
   <si>
@@ -6313,6 +6307,9 @@
   </si>
   <si>
     <t>Vergleiche mit den Medianwerten aller Städte dieser internationalen Studie könnten zu den für die lokale Stadtpolitik erforderlichen Änderungen führen. Die Karten zeigen die Verteilung von Stadtgestaltung und Verkehrsmerkmalen in {city} und identifizieren Gebiete, die am meisten von Interventionen profitieren könnten, um eine gesunde und nachhaltige Umwelt zu schaffen.</t>
+  </si>
+  <si>
+    <t>{"study_citations":"||The Lancet Global Health Series on urban design, transport, and health. 2022. https://www.thelancet.com/series/urban-design-2022 ","citation_doi":"Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally ({vernacular}). {city_doi}","citations":"{citation_series}: {study_citations}||{citation_population}: Schiavina, M. et al. (2019): GHS population grid multitemporal (1975, 1990, 2000, 2015) R2019A. European Commission, Joint Research Centre (JRC). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 |{citation_boundaries}: Florczyk, A. et al. (2019): GHS Urban Centre Database 2015, multitemporal and multidimensional attributes, R2019A. European Commission, Joint Research Centre (JRC). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e |{citation_features}: OpenStreetMap contributors. Openstreetmap (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent |{citation_colour}: Crameri, F. (2018). Scientific colour-maps (3.0.4). Zenodo. https://doi.org/10.5281/zenodo.1287763"}</t>
   </si>
 </sst>
 </file>
@@ -8456,7 +8453,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -8514,7 +8511,7 @@
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -9211,7 +9208,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -9834,10 +9831,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="N36" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O36" t="s">
         <v>26</v>
@@ -9896,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O37" t="s">
         <v>26</v>
@@ -9956,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -10013,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O39" t="s">
         <v>26</v>
@@ -10073,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
@@ -10134,7 +10131,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>28</v>
@@ -10196,7 +10193,7 @@
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>28</v>
@@ -10254,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O43" t="s">
         <v>26</v>
@@ -10310,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O44" t="s">
         <v>26</v>
@@ -10370,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O45" t="s">
         <v>26</v>
@@ -10433,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O46" t="s">
         <v>26</v>
@@ -10493,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
@@ -10557,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -10619,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -10680,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O50" t="s">
         <v>26</v>
@@ -10743,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O51" t="s">
         <v>26</v>
@@ -10803,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
@@ -10867,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
@@ -10929,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
@@ -10990,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O55" t="s">
         <v>26</v>
@@ -11053,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O56" t="s">
         <v>26</v>
@@ -11113,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
@@ -11177,7 +11174,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
@@ -11239,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
@@ -11300,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O60" t="s">
         <v>26</v>
@@ -11363,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O61" t="s">
         <v>26</v>
@@ -11423,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
@@ -11487,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
@@ -11549,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
@@ -11610,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O65" t="s">
         <v>26</v>
@@ -11673,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O66" t="s">
         <v>26</v>
@@ -11733,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
@@ -11797,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
@@ -11859,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
@@ -11920,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O70" t="s">
         <v>26</v>
@@ -11983,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O71" t="s">
         <v>26</v>
@@ -12043,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O72" t="s">
         <v>28</v>
@@ -12107,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O73" t="s">
         <v>28</v>
@@ -12169,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O74" t="s">
         <v>28</v>
@@ -12457,10 +12454,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N79" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O79" t="s">
         <v>26</v>
@@ -12520,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O80" t="s">
         <v>26</v>
@@ -12580,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O81" t="s">
         <v>28</v>
@@ -12640,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O82" t="s">
         <v>28</v>
@@ -12700,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O83" t="s">
         <v>28</v>
@@ -12760,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O84" t="s">
         <v>28</v>
@@ -12817,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O85" t="s">
         <v>26</v>
@@ -12874,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O86" t="s">
         <v>26</v>
@@ -12931,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O87" t="s">
         <v>26</v>
@@ -12988,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O88" t="s">
         <v>26</v>
@@ -13048,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O89" t="s">
         <v>26</v>
@@ -13108,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O90" t="s">
         <v>26</v>
@@ -13168,7 +13165,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O91" t="s">
         <v>26</v>
@@ -13228,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O92" t="s">
         <v>26</v>
@@ -13288,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O93" t="s">
         <v>26</v>
@@ -13348,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O94" t="s">
         <v>26</v>
@@ -13408,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O95" t="s">
         <v>26</v>
@@ -13468,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O96" t="s">
         <v>26</v>
@@ -13528,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O97" t="s">
         <v>26</v>
@@ -13588,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O98" t="s">
         <v>26</v>
@@ -13648,7 +13645,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O99" t="s">
         <v>26</v>
@@ -13708,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O100" t="s">
         <v>26</v>
@@ -13768,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O101" t="s">
         <v>26</v>
@@ -13828,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O102" t="s">
         <v>26</v>
@@ -13888,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O103" t="s">
         <v>26</v>
@@ -13948,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O104" t="s">
         <v>26</v>
@@ -14008,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O105" t="s">
         <v>26</v>
@@ -14068,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O106" t="s">
         <v>26</v>
@@ -14128,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O107" t="s">
         <v>26</v>
@@ -14188,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O108" t="s">
         <v>26</v>
@@ -14248,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O109" t="s">
         <v>26</v>
@@ -14308,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O110" t="s">
         <v>26</v>
@@ -14368,7 +14365,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O111" t="s">
         <v>26</v>
@@ -14428,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O112" t="s">
         <v>26</v>
@@ -14488,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O113" t="s">
         <v>26</v>
@@ -14548,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O114" t="s">
         <v>26</v>
@@ -14608,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O115" t="s">
         <v>26</v>
@@ -14668,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O116" t="s">
         <v>26</v>
@@ -14728,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O117" t="s">
         <v>26</v>
@@ -14788,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O118" t="s">
         <v>26</v>
@@ -14848,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O119" t="s">
         <v>26</v>
@@ -14908,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O120" t="s">
         <v>26</v>
@@ -14968,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O121" t="s">
         <v>26</v>
@@ -15028,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O122" t="s">
         <v>26</v>
@@ -15088,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O123" t="s">
         <v>26</v>
@@ -15945,10 +15942,10 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O138" t="s">
         <v>26</v>
@@ -16008,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O139" t="s">
         <v>26</v>
@@ -16068,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O140" t="s">
         <v>28</v>
@@ -16128,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O141" t="s">
         <v>28</v>
@@ -16188,7 +16185,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O142" t="s">
         <v>28</v>
@@ -16248,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O143" t="s">
         <v>28</v>
@@ -16305,7 +16302,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O144" t="s">
         <v>26</v>
@@ -16362,7 +16359,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O145" t="s">
         <v>26</v>
@@ -16419,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O146" t="s">
         <v>26</v>
@@ -16476,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O147" t="s">
         <v>26</v>
@@ -16536,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O148" t="s">
         <v>26</v>
@@ -16596,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O149" t="s">
         <v>26</v>
@@ -16656,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O150" t="s">
         <v>26</v>
@@ -16716,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O151" t="s">
         <v>26</v>
@@ -16776,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O152" t="s">
         <v>26</v>
@@ -16836,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O153" t="s">
         <v>26</v>
@@ -16896,7 +16893,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O154" t="s">
         <v>26</v>
@@ -16956,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O155" t="s">
         <v>26</v>
@@ -17016,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O156" t="s">
         <v>26</v>
@@ -17076,7 +17073,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O157" t="s">
         <v>26</v>
@@ -17136,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O158" t="s">
         <v>26</v>
@@ -17196,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O159" t="s">
         <v>26</v>
@@ -17256,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O160" t="s">
         <v>26</v>
@@ -17316,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O161" t="s">
         <v>26</v>
@@ -17376,7 +17373,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O162" t="s">
         <v>26</v>
@@ -17436,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O163" t="s">
         <v>26</v>
@@ -17496,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O164" t="s">
         <v>26</v>
@@ -17556,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O165" t="s">
         <v>26</v>
@@ -17616,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O166" t="s">
         <v>26</v>
@@ -17676,7 +17673,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O167" t="s">
         <v>26</v>
@@ -17904,10 +17901,10 @@
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N171" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O171" t="s">
         <v>26</v>
@@ -17967,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O172" t="s">
         <v>26</v>
@@ -18027,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O173" t="s">
         <v>28</v>
@@ -18087,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O174" t="s">
         <v>28</v>
@@ -18147,7 +18144,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O175" t="s">
         <v>28</v>
@@ -18207,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O176" t="s">
         <v>28</v>
@@ -18264,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O177" t="s">
         <v>26</v>
@@ -18321,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O178" t="s">
         <v>26</v>
@@ -18378,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="N179" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O179" t="s">
         <v>26</v>
@@ -18435,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="N180" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O180" t="s">
         <v>26</v>
@@ -18495,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O181" t="s">
         <v>26</v>
@@ -18555,7 +18552,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O182" t="s">
         <v>26</v>
@@ -18615,7 +18612,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O183" t="s">
         <v>26</v>
@@ -18675,7 +18672,7 @@
         <v>0</v>
       </c>
       <c r="N184" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O184" t="s">
         <v>26</v>
@@ -18735,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O185" t="s">
         <v>26</v>
@@ -18789,10 +18786,10 @@
         <v>0</v>
       </c>
       <c r="M186" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="N186" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O186" t="s">
         <v>26</v>
@@ -18850,7 +18847,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O187" t="s">
         <v>208</v>
@@ -18910,7 +18907,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O188" t="s">
         <v>208</v>
@@ -19044,7 +19041,7 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B191">
         <v>6</v>
@@ -19145,7 +19142,7 @@
         <v>26</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -19984,7 +19981,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -20042,7 +20039,7 @@
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -20740,7 +20737,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -21357,10 +21354,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="N36" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O36" t="s">
         <v>26</v>
@@ -21420,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O37" t="s">
         <v>26</v>
@@ -21480,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -21537,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O39" t="s">
         <v>26</v>
@@ -21597,7 +21594,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
@@ -21658,7 +21655,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>28</v>
@@ -21720,7 +21717,7 @@
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>28</v>
@@ -21778,7 +21775,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O43" t="s">
         <v>26</v>
@@ -21834,7 +21831,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O44" t="s">
         <v>26</v>
@@ -21894,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O45" t="s">
         <v>26</v>
@@ -21957,7 +21954,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O46" t="s">
         <v>26</v>
@@ -22017,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
@@ -22081,7 +22078,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -22143,7 +22140,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -22204,7 +22201,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O50" t="s">
         <v>26</v>
@@ -22267,7 +22264,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O51" t="s">
         <v>26</v>
@@ -22327,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
@@ -22391,7 +22388,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
@@ -22453,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
@@ -22514,7 +22511,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O55" t="s">
         <v>26</v>
@@ -22577,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O56" t="s">
         <v>26</v>
@@ -22637,7 +22634,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
@@ -22701,7 +22698,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
@@ -22763,7 +22760,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
@@ -22824,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O60" t="s">
         <v>26</v>
@@ -22887,7 +22884,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O61" t="s">
         <v>26</v>
@@ -22947,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
@@ -23011,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
@@ -23073,7 +23070,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
@@ -23134,7 +23131,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O65" t="s">
         <v>26</v>
@@ -23197,7 +23194,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O66" t="s">
         <v>26</v>
@@ -23257,7 +23254,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
@@ -23321,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
@@ -23383,7 +23380,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
@@ -23444,7 +23441,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O70" t="s">
         <v>26</v>
@@ -23507,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O71" t="s">
         <v>26</v>
@@ -23567,7 +23564,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O72" t="s">
         <v>28</v>
@@ -23631,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O73" t="s">
         <v>28</v>
@@ -23693,7 +23690,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O74" t="s">
         <v>28</v>
@@ -23981,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N79" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O79" t="s">
         <v>26</v>
@@ -24044,7 +24041,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O80" t="s">
         <v>26</v>
@@ -24104,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O81" t="s">
         <v>28</v>
@@ -24164,7 +24161,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O82" t="s">
         <v>28</v>
@@ -24224,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O83" t="s">
         <v>28</v>
@@ -24284,7 +24281,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O84" t="s">
         <v>28</v>
@@ -24341,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O85" t="s">
         <v>26</v>
@@ -24398,7 +24395,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O86" t="s">
         <v>26</v>
@@ -24455,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O87" t="s">
         <v>26</v>
@@ -24512,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O88" t="s">
         <v>26</v>
@@ -24572,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O89" t="s">
         <v>26</v>
@@ -24632,7 +24629,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O90" t="s">
         <v>26</v>
@@ -24692,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O91" t="s">
         <v>26</v>
@@ -24752,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O92" t="s">
         <v>26</v>
@@ -24812,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O93" t="s">
         <v>26</v>
@@ -24872,7 +24869,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O94" t="s">
         <v>26</v>
@@ -24932,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O95" t="s">
         <v>26</v>
@@ -24992,7 +24989,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O96" t="s">
         <v>26</v>
@@ -25052,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O97" t="s">
         <v>26</v>
@@ -25112,7 +25109,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O98" t="s">
         <v>26</v>
@@ -25172,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O99" t="s">
         <v>26</v>
@@ -25232,7 +25229,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O100" t="s">
         <v>26</v>
@@ -25292,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O101" t="s">
         <v>26</v>
@@ -25352,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O102" t="s">
         <v>26</v>
@@ -25412,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O103" t="s">
         <v>26</v>
@@ -25472,7 +25469,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O104" t="s">
         <v>26</v>
@@ -25532,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O105" t="s">
         <v>26</v>
@@ -25592,7 +25589,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O106" t="s">
         <v>26</v>
@@ -25652,7 +25649,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O107" t="s">
         <v>26</v>
@@ -25712,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O108" t="s">
         <v>26</v>
@@ -25772,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O109" t="s">
         <v>26</v>
@@ -25832,7 +25829,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O110" t="s">
         <v>26</v>
@@ -25892,7 +25889,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O111" t="s">
         <v>26</v>
@@ -25952,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O112" t="s">
         <v>26</v>
@@ -26012,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O113" t="s">
         <v>26</v>
@@ -26072,7 +26069,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O114" t="s">
         <v>26</v>
@@ -26132,7 +26129,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O115" t="s">
         <v>26</v>
@@ -26192,7 +26189,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O116" t="s">
         <v>26</v>
@@ -26252,7 +26249,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O117" t="s">
         <v>26</v>
@@ -26312,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O118" t="s">
         <v>26</v>
@@ -26372,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O119" t="s">
         <v>26</v>
@@ -26432,7 +26429,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O120" t="s">
         <v>26</v>
@@ -26492,7 +26489,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O121" t="s">
         <v>26</v>
@@ -26552,7 +26549,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O122" t="s">
         <v>26</v>
@@ -26612,7 +26609,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O123" t="s">
         <v>26</v>
@@ -27469,10 +27466,10 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O138" t="s">
         <v>26</v>
@@ -27532,7 +27529,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O139" t="s">
         <v>26</v>
@@ -27592,7 +27589,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O140" t="s">
         <v>28</v>
@@ -27652,7 +27649,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O141" t="s">
         <v>28</v>
@@ -27712,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O142" t="s">
         <v>28</v>
@@ -27772,7 +27769,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O143" t="s">
         <v>28</v>
@@ -27829,7 +27826,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O144" t="s">
         <v>26</v>
@@ -27886,7 +27883,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O145" t="s">
         <v>26</v>
@@ -27943,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O146" t="s">
         <v>26</v>
@@ -28000,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O147" t="s">
         <v>26</v>
@@ -28060,7 +28057,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O148" t="s">
         <v>26</v>
@@ -28120,7 +28117,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O149" t="s">
         <v>26</v>
@@ -28180,7 +28177,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O150" t="s">
         <v>26</v>
@@ -28240,7 +28237,7 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O151" t="s">
         <v>26</v>
@@ -28300,7 +28297,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O152" t="s">
         <v>26</v>
@@ -28360,7 +28357,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O153" t="s">
         <v>26</v>
@@ -28420,7 +28417,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O154" t="s">
         <v>26</v>
@@ -28480,7 +28477,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O155" t="s">
         <v>26</v>
@@ -28540,7 +28537,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O156" t="s">
         <v>26</v>
@@ -28600,7 +28597,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O157" t="s">
         <v>26</v>
@@ -28660,7 +28657,7 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O158" t="s">
         <v>26</v>
@@ -28720,7 +28717,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O159" t="s">
         <v>26</v>
@@ -28780,7 +28777,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O160" t="s">
         <v>26</v>
@@ -28840,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O161" t="s">
         <v>26</v>
@@ -28900,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O162" t="s">
         <v>26</v>
@@ -28960,7 +28957,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O163" t="s">
         <v>26</v>
@@ -29020,7 +29017,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O164" t="s">
         <v>26</v>
@@ -29080,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O165" t="s">
         <v>26</v>
@@ -29140,7 +29137,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O166" t="s">
         <v>26</v>
@@ -29200,7 +29197,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O167" t="s">
         <v>26</v>
@@ -29428,10 +29425,10 @@
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N171" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O171" t="s">
         <v>26</v>
@@ -29491,7 +29488,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O172" t="s">
         <v>26</v>
@@ -29551,7 +29548,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O173" t="s">
         <v>28</v>
@@ -29611,7 +29608,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O174" t="s">
         <v>28</v>
@@ -29671,7 +29668,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O175" t="s">
         <v>28</v>
@@ -29731,7 +29728,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O176" t="s">
         <v>28</v>
@@ -29788,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O177" t="s">
         <v>26</v>
@@ -29845,7 +29842,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O178" t="s">
         <v>26</v>
@@ -29902,7 +29899,7 @@
         <v>0</v>
       </c>
       <c r="N179" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O179" t="s">
         <v>26</v>
@@ -29959,7 +29956,7 @@
         <v>0</v>
       </c>
       <c r="N180" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O180" t="s">
         <v>26</v>
@@ -30019,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O181" t="s">
         <v>26</v>
@@ -30079,7 +30076,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O182" t="s">
         <v>26</v>
@@ -30139,7 +30136,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O183" t="s">
         <v>26</v>
@@ -30199,7 +30196,7 @@
         <v>0</v>
       </c>
       <c r="N184" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O184" t="s">
         <v>26</v>
@@ -30259,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O185" t="s">
         <v>26</v>
@@ -30313,10 +30310,10 @@
         <v>0</v>
       </c>
       <c r="M186" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="N186" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O186" t="s">
         <v>26</v>
@@ -30374,7 +30371,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O187" t="s">
         <v>208</v>
@@ -30434,7 +30431,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="O188" t="s">
         <v>208</v>
@@ -30568,7 +30565,7 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B191">
         <v>8</v>
@@ -30669,7 +30666,7 @@
         <v>26</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -30815,11 +30812,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H89" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="S167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J90" sqref="J90"/>
+      <selection pane="bottomRight" activeCell="T168" sqref="T168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30970,7 +30967,7 @@
         <v>146</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="C3" s="53">
         <v>1</v>
@@ -31110,16 +31107,16 @@
         <v>967</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>1309</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>440</v>
@@ -31138,7 +31135,7 @@
         <v>787</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="Q5" s="11" t="s">
         <v>465</v>
@@ -31147,7 +31144,7 @@
         <v>1672</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>1293</v>
@@ -33364,7 +33361,7 @@
         <v>487</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K64" s="22" t="s">
         <v>1383</v>
@@ -33426,7 +33423,7 @@
         <v>1189</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="K65" s="22" t="s">
         <v>1384</v>
@@ -33550,7 +33547,7 @@
         <v>1191</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="K67" s="22" t="s">
         <v>1386</v>
@@ -34111,7 +34108,7 @@
         <v>1572</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="L76" s="22"/>
       <c r="M76" s="22" t="s">
@@ -34149,56 +34146,56 @@
         <v>578</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>1860</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="E77" s="9" t="s">
         <v>1861</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="F77" s="9" t="s">
         <v>1862</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="G77" s="10" t="s">
         <v>1863</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="H77" s="9" t="s">
         <v>1864</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="I77" s="22" t="s">
         <v>1865</v>
       </c>
-      <c r="I77" s="22" t="s">
+      <c r="J77" s="9" t="s">
         <v>1866</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="K77" s="22" t="s">
         <v>1867</v>
-      </c>
-      <c r="K77" s="22" t="s">
-        <v>1868</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N77" s="9" t="s">
         <v>1869</v>
       </c>
-      <c r="N77" s="9" t="s">
+      <c r="O77" s="11" t="s">
         <v>1870</v>
       </c>
-      <c r="O77" s="11" t="s">
+      <c r="P77" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="P77" s="9" t="s">
+      <c r="Q77" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="Q77" s="9" t="s">
+      <c r="R77" s="9" t="s">
         <v>1873</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>1874</v>
       </c>
       <c r="S77" s="9" t="s">
         <v>1738</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
@@ -34211,56 +34208,56 @@
         <v>579</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>1876</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>1877</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>1878</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="G78" s="10" t="s">
         <v>1879</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="H78" s="9" t="s">
         <v>1880</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="I78" s="22" t="s">
         <v>1881</v>
       </c>
-      <c r="I78" s="22" t="s">
+      <c r="J78" s="9" t="s">
         <v>1882</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="K78" s="22" t="s">
         <v>1883</v>
-      </c>
-      <c r="K78" s="22" t="s">
-        <v>1884</v>
       </c>
       <c r="L78" s="22"/>
       <c r="M78" s="22" t="s">
+        <v>1884</v>
+      </c>
+      <c r="N78" s="9" t="s">
         <v>1885</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="O78" s="11" t="s">
         <v>1886</v>
       </c>
-      <c r="O78" s="11" t="s">
+      <c r="P78" s="9" t="s">
         <v>1887</v>
       </c>
-      <c r="P78" s="9" t="s">
+      <c r="Q78" s="9" t="s">
         <v>1888</v>
       </c>
-      <c r="Q78" s="9" t="s">
+      <c r="R78" s="9" t="s">
         <v>1889</v>
-      </c>
-      <c r="R78" s="9" t="s">
-        <v>1890</v>
       </c>
       <c r="S78" s="9" t="s">
         <v>1739</v>
       </c>
       <c r="T78" s="9" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
@@ -34273,56 +34270,56 @@
         <v>577</v>
       </c>
       <c r="C79" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>1892</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="E79" s="9" t="s">
         <v>1893</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="F79" s="9" t="s">
         <v>1894</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="G79" s="10" t="s">
         <v>1895</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="H79" s="9" t="s">
         <v>1896</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="I79" s="22" t="s">
         <v>1897</v>
       </c>
-      <c r="I79" s="22" t="s">
+      <c r="J79" s="9" t="s">
         <v>1898</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="K79" s="22" t="s">
         <v>1899</v>
-      </c>
-      <c r="K79" s="22" t="s">
-        <v>1900</v>
       </c>
       <c r="L79" s="22"/>
       <c r="M79" s="22" t="s">
+        <v>1900</v>
+      </c>
+      <c r="N79" s="9" t="s">
         <v>1901</v>
       </c>
-      <c r="N79" s="9" t="s">
+      <c r="O79" s="9" t="s">
         <v>1902</v>
       </c>
-      <c r="O79" s="9" t="s">
+      <c r="P79" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="P79" s="9" t="s">
+      <c r="Q79" s="9" t="s">
         <v>1904</v>
       </c>
-      <c r="Q79" s="9" t="s">
+      <c r="R79" s="9" t="s">
         <v>1905</v>
-      </c>
-      <c r="R79" s="9" t="s">
-        <v>1906</v>
       </c>
       <c r="S79" s="9" t="s">
         <v>1737</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
@@ -34828,7 +34825,7 @@
         <v>146</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>1598</v>
@@ -34877,7 +34874,7 @@
         <v>1690</v>
       </c>
       <c r="S88" s="11" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="T88" s="11" t="s">
         <v>1606</v>
@@ -34893,56 +34890,56 @@
         <v>182</v>
       </c>
       <c r="C89" s="12" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>1997</v>
+      </c>
+      <c r="I89" s="22" t="s">
+        <v>1998</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>1990</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>1994</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>1995</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>1996</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>1997</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>1998</v>
-      </c>
-      <c r="I89" s="22" t="s">
-        <v>1999</v>
-      </c>
-      <c r="J89" s="11" t="s">
+      <c r="K89" s="22" t="s">
         <v>1991</v>
-      </c>
-      <c r="K89" s="22" t="s">
-        <v>1992</v>
       </c>
       <c r="L89" s="22"/>
       <c r="M89" s="22" t="s">
+        <v>2000</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O89" s="11" t="s">
         <v>2001</v>
       </c>
-      <c r="N89" s="11" t="s">
-        <v>1993</v>
-      </c>
-      <c r="O89" s="11" t="s">
+      <c r="P89" s="11" t="s">
         <v>2002</v>
       </c>
-      <c r="P89" s="11" t="s">
+      <c r="Q89" s="11" t="s">
         <v>2003</v>
       </c>
-      <c r="Q89" s="11" t="s">
+      <c r="R89" s="11" t="s">
         <v>2004</v>
       </c>
-      <c r="R89" s="11" t="s">
+      <c r="S89" s="11" t="s">
+        <v>2006</v>
+      </c>
+      <c r="T89" s="11" t="s">
         <v>2005</v>
-      </c>
-      <c r="S89" s="11" t="s">
-        <v>2007</v>
-      </c>
-      <c r="T89" s="11" t="s">
-        <v>2006</v>
       </c>
       <c r="U89" s="11"/>
       <c r="V89" s="11"/>
@@ -34976,7 +34973,7 @@
         <v>1544</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="K90" s="22" t="s">
         <v>1448</v>
@@ -34986,7 +34983,7 @@
         <v>629</v>
       </c>
       <c r="N90" s="11" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="O90" s="11" t="s">
         <v>796</v>
@@ -35001,7 +34998,7 @@
         <v>1684</v>
       </c>
       <c r="S90" s="11" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="T90" s="11" t="s">
         <v>1294</v>
@@ -35249,7 +35246,7 @@
         <v>1687</v>
       </c>
       <c r="S94" s="11" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="T94" s="11" t="s">
         <v>1304</v>
@@ -35451,56 +35448,56 @@
         <v>40</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="L98" s="22"/>
       <c r="M98" s="22" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="N98" s="11" t="s">
+        <v>1942</v>
+      </c>
+      <c r="O98" s="11" t="s">
         <v>1943</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="P98" s="11" t="s">
         <v>1944</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="Q98" s="11" t="s">
         <v>1945</v>
-      </c>
-      <c r="Q98" s="11" t="s">
-        <v>1946</v>
       </c>
       <c r="R98" s="11" t="s">
         <v>1689</v>
       </c>
       <c r="S98" s="11" t="s">
+        <v>1946</v>
+      </c>
+      <c r="T98" s="11" t="s">
         <v>1947</v>
-      </c>
-      <c r="T98" s="11" t="s">
-        <v>1948</v>
       </c>
       <c r="U98" s="11"/>
       <c r="V98" s="11"/>
@@ -35745,7 +35742,7 @@
         <v>373</v>
       </c>
       <c r="S102" s="11" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="T102" s="11" t="s">
         <v>1264</v>
@@ -35782,7 +35779,7 @@
         <v>1208</v>
       </c>
       <c r="J103" s="11" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="K103" s="22" t="s">
         <v>1412</v>
@@ -35792,7 +35789,7 @@
         <v>639</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="O103" s="11" t="s">
         <v>799</v>
@@ -35807,7 +35804,7 @@
         <v>374</v>
       </c>
       <c r="S103" s="11" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="T103" s="11" t="s">
         <v>1265</v>
@@ -35844,7 +35841,7 @@
         <v>1209</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="K104" s="22" t="s">
         <v>1413</v>
@@ -36040,7 +36037,7 @@
         <v>643</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="O107" s="14" t="s">
         <v>894</v>
@@ -36055,7 +36052,7 @@
         <v>1832</v>
       </c>
       <c r="S107" s="11" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="T107" s="11" t="s">
         <v>1268</v>
@@ -36071,7 +36068,7 @@
         <v>947</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>877</v>
@@ -36133,7 +36130,7 @@
         <v>952</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>878</v>
@@ -36195,7 +36192,7 @@
         <v>953</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>879</v>
@@ -36365,7 +36362,7 @@
         <v>377</v>
       </c>
       <c r="S112" s="11" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="T112" s="11" t="s">
         <v>359</v>
@@ -36464,7 +36461,7 @@
         <v>1215</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="K114" s="22" t="s">
         <v>1420</v>
@@ -36489,7 +36486,7 @@
         <v>1693</v>
       </c>
       <c r="S114" s="11" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="T114" s="11" t="s">
         <v>1271</v>
@@ -36588,7 +36585,7 @@
         <v>1217</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="K116" s="22" t="s">
         <v>1422</v>
@@ -36675,7 +36672,7 @@
         <v>1695</v>
       </c>
       <c r="S117" s="11" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="T117" s="11" t="s">
         <v>1296</v>
@@ -36712,7 +36709,7 @@
         <v>1218</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K118" s="22" t="s">
         <v>1424</v>
@@ -36737,7 +36734,7 @@
         <v>1696</v>
       </c>
       <c r="S118" s="11" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="T118" s="11" t="s">
         <v>361</v>
@@ -36774,7 +36771,7 @@
         <v>1219</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K119" s="22" t="s">
         <v>1425</v>
@@ -36799,7 +36796,7 @@
         <v>380</v>
       </c>
       <c r="S119" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="T119" s="11" t="s">
         <v>1274</v>
@@ -37063,7 +37060,7 @@
         <v>232</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>1308</v>
@@ -37280,7 +37277,7 @@
         <v>658</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="O127" s="14" t="s">
         <v>903</v>
@@ -37295,7 +37292,7 @@
         <v>1833</v>
       </c>
       <c r="S127" s="11" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="T127" s="11" t="s">
         <v>1758</v>
@@ -37332,7 +37329,7 @@
         <v>1225</v>
       </c>
       <c r="J128" s="11" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="K128" s="22" t="s">
         <v>1432</v>
@@ -37590,7 +37587,7 @@
         <v>663</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="O132" s="14" t="s">
         <v>905</v>
@@ -37605,7 +37602,7 @@
         <v>1700</v>
       </c>
       <c r="S132" s="11" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="T132" s="11" t="s">
         <v>1298</v>
@@ -37683,7 +37680,7 @@
         <v>702</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>886</v>
@@ -38203,7 +38200,7 @@
         <v>461</v>
       </c>
       <c r="K142" s="22" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="L142" s="22"/>
       <c r="M142" s="22" t="s">
@@ -38277,7 +38274,7 @@
         <v>Mexico City - Summary</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -38290,7 +38287,7 @@
       <c r="L144" s="22"/>
       <c r="M144" s="22"/>
       <c r="N144" s="11" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
@@ -38345,7 +38342,7 @@
         <v>Phoenix - Summary</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
@@ -38378,7 +38375,7 @@
         <v>Seattle - Summary</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
@@ -38411,7 +38408,7 @@
         <v>Sao Paulo - Summary</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
@@ -38446,7 +38443,7 @@
         <v>Hong Kong - Summary</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
@@ -38538,7 +38535,7 @@
       </c>
       <c r="R151" s="11"/>
       <c r="S151" s="11" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
@@ -38588,7 +38585,7 @@
         <v>Graz - Summary</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
@@ -38597,7 +38594,7 @@
       <c r="H153" s="11"/>
       <c r="I153" s="22"/>
       <c r="J153" s="11" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K153" s="22"/>
       <c r="L153" s="22"/>
@@ -38623,7 +38620,7 @@
         <v>Ghent - Summary</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
@@ -38667,7 +38664,7 @@
       <c r="H155" s="11"/>
       <c r="I155" s="22"/>
       <c r="J155" s="11" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="K155" s="22"/>
       <c r="L155" s="22"/>
@@ -38737,7 +38734,7 @@
       <c r="H157" s="11"/>
       <c r="I157" s="22"/>
       <c r="J157" s="11" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="K157" s="22"/>
       <c r="L157" s="22"/>
@@ -38763,7 +38760,7 @@
         <v>Odense - Summary</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
@@ -38798,7 +38795,7 @@
         <v>Barcelona - Summary</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>1769</v>
@@ -38835,7 +38832,7 @@
         <v>Valencia - Summary</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>1770</v>
@@ -38872,7 +38869,7 @@
         <v>Vic - Summary</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>1771</v>
@@ -38909,7 +38906,7 @@
         <v>Belfast - Summary</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
@@ -38975,7 +38972,7 @@
         <v>Adelaide - Summary</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
@@ -39008,7 +39005,7 @@
         <v>Melbourne - Summary</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
@@ -39041,7 +39038,7 @@
         <v>Sydney - Summary</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
@@ -39125,10 +39122,10 @@
         <v>1236</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="N168" s="2" t="s">
         <v>867</v>
@@ -39137,7 +39134,7 @@
         <v>1106</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="Q168" s="2" t="s">
         <v>1532</v>
@@ -39381,11 +39378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAA5C4-0A70-4221-8832-C196189F112B}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39450,10 +39447,10 @@
         <v>1083</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>2009</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39467,7 +39464,7 @@
         <v>1593</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>1646</v>
@@ -39479,10 +39476,10 @@
         <v>1646</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39508,10 +39505,10 @@
         <v>1168</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -39537,7 +39534,7 @@
         <v>1169</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>1626</v>
@@ -39566,7 +39563,7 @@
         <v>1827</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>1626</v>
@@ -39595,7 +39592,7 @@
         <v>1590</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>1612</v>
@@ -39609,7 +39606,7 @@
         <v>1785</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1155</v>
@@ -39624,10 +39621,10 @@
         <v>1597</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -39653,10 +39650,10 @@
         <v>1559</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39682,10 +39679,10 @@
         <v>1834</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39711,10 +39708,10 @@
         <v>1170</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39740,10 +39737,10 @@
         <v>1292</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -39754,25 +39751,25 @@
         <v>1790</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>1559</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>1559</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39798,10 +39795,10 @@
         <v>1645</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -39812,25 +39809,25 @@
         <v>1792</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>1559</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>1559</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39856,10 +39853,10 @@
         <v>1518</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -39870,25 +39867,25 @@
         <v>1794</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>1559</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>1559</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39914,10 +39911,10 @@
         <v>1642</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -39943,10 +39940,10 @@
         <v>1159</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -39972,10 +39969,10 @@
         <v>1167</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -40001,10 +39998,10 @@
         <v>1540</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -40030,10 +40027,10 @@
         <v>1162</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -40059,10 +40056,10 @@
         <v>1534</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="300" x14ac:dyDescent="0.25">
@@ -40073,22 +40070,22 @@
         <v>1799</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F24" s="20" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>1961</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>1962</v>
-      </c>
       <c r="H24" s="48" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1626</v>
@@ -40102,7 +40099,7 @@
         <v>1799</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>1164</v>
@@ -40117,7 +40114,7 @@
         <v>1289</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>1626</v>
@@ -40131,13 +40128,13 @@
         <v>1799</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D26" s="20" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>1963</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>1964</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>1538</v>
@@ -40146,7 +40143,7 @@
         <v>1522</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>1626</v>
@@ -40175,10 +40172,10 @@
         <v>1536</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
     </row>
   </sheetData>
@@ -40627,7 +40624,7 @@
   <dimension ref="A2:U29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="O24" activeCellId="17" sqref="E4:E28 F20:F22 G10:H10 I19 J15 L18 L16 L14 K4 N9 P5 R11 S12 T13 Q20 Q21 Q22 O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40764,7 +40761,7 @@
         <v>818</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>1837</v>
+        <v>817</v>
       </c>
       <c r="L4" s="37" t="s">
         <v>818</v>
@@ -41240,7 +41237,7 @@
         <v>818</v>
       </c>
       <c r="R11" s="41" t="s">
-        <v>1837</v>
+        <v>817</v>
       </c>
       <c r="S11" s="38" t="s">
         <v>818</v>
@@ -42358,7 +42355,7 @@
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U29" s="2" t="str">
         <f>COUNTIF(E4:T28,"Yes")&amp;"/"&amp;COUNTIF(E4:T28,"&lt;&gt;-")&amp;" reports for "&amp;COUNTA(A4:A28)&amp;" cities across "&amp;COUNTA(E3:T3)&amp;" languages"</f>
-        <v>43/47 reports for 25 cities across 16 languages</v>
+        <v>45/47 reports for 25 cities across 16 languages</v>
       </c>
     </row>
   </sheetData>

--- a/_report_configuration.xlsx
+++ b/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/analysis/global_scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3274" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A908F43-AAFA-4A98-B5B9-75082966B4EC}"/>
+  <xr:revisionPtr revIDLastSave="3300" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB0B94F3-D646-4FB0-AAFF-4A65B172B11E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_web" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="2046">
   <si>
     <t>name</t>
   </si>
@@ -3128,9 +3128,6 @@
     <t>Lokale Mitarbeiter ({city})</t>
   </si>
   <si>
-    <t>Nga hoa mahi a rohe ({city})</t>
-  </si>
-  <si>
     <t>Colaboradores locales ({city})</t>
   </si>
   <si>
@@ -3141,9 +3138,6 @@
   </si>
   <si>
     <t>ผู้ทํางานร่วมกันในพื้นที่ ({city})</t>
-  </si>
-  <si>
-    <t>Xavier Delclòs Alió, Joan Carles Martori, Javier Molina-García, Anna Puig-Ribera, Ana Queralt &amp; Guillem Vich Callejo</t>
   </si>
   <si>
     <t>Dirección del estudio</t>
@@ -4172,12 +4166,6 @@
     <t>(a ƙasa) Kashi na yawan jama'a tare da damar samun abubuwan more rayuwa tsakanin mita 500 (m) a cikin {city}, {country}.</t>
   </si>
   <si>
-    <t>Rapport om byindkatorer for sundhed og bæredygtighed</t>
-  </si>
-  <si>
-    <t>Internationalt sammenliget med 25 byer</t>
-  </si>
-  <si>
     <t>Fødevarerbutikker</t>
   </si>
   <si>
@@ -4404,9 +4392,6 @@
   </si>
   <si>
     <t>Sydney harbourside</t>
-  </si>
-  <si>
-    <t>Auckland park</t>
   </si>
   <si>
     <t>© 2020 University of Vic-UCC</t>
@@ -5177,9 +5162,6 @@
   </si>
   <si>
     <t>ca</t>
-  </si>
-  <si>
-    <t>zh_Hant</t>
   </si>
   <si>
     <t>zh_Hans</t>
@@ -5826,9 +5808,6 @@
     <t>健康与可持续城市指标报告:</t>
   </si>
   <si>
-    <t>Rapport om byindkatorer for sundhed og bæredygtighed:</t>
-  </si>
-  <si>
     <t>Rapport - indicatoren van een gezonde en duurzame stad:</t>
   </si>
   <si>
@@ -6090,9 +6069,6 @@
     <t>Wāhi Tūwhera Whānui</t>
   </si>
   <si>
-    <t>Tūnga Waka Tāone</t>
-  </si>
-  <si>
     <t>Tūnga Waka Tāone me ngā Whakaritenga Huarahi</t>
   </si>
   <si>
@@ -6108,9 +6084,6 @@
     <t>% o te taupori e āhei ana te whakamahi ngā waka harihari-ā-tāone</t>
   </si>
   <si>
-    <t>% o te taupori i roto i te rohenga o te 500m mai ngā waka harihari-ā-tāone e āhei ana te haere i roto i te 20 miniti iti, iho rānei.</t>
-  </si>
-  <si>
     <t>% o te taupori i roto i te rohenga o te 500m mai ngā wāhi tūwhera e 1.5 heketea piki ake.</t>
   </si>
   <si>
@@ -6145,12 +6118,6 @@
   </si>
   <si>
     <t>Ka taea e ngā whakatauritenga me ngā uara toharite mai ngā tāone nei te whakamārama he aha kē ngā rerekētanga me whai wāhi atu ki roto i ngā kaupapahere me ngā tukanga a ngā tāone. Ko te mahere nei e whakaatu ana i ngā whakaritenga tāone me ngā whakaritenga mo ngā waka harihari-ā-hāpori i roto i a {city_name} me te tohu atu ngā wāhi ka whai painga mai ngā rautaki hou mo te whakapai ake i te hauora me te taiao.</t>
-  </si>
-  <si>
-    <t>Paehēneti o te taupori e taea te whāwhā atu ki ngā tāonga i roto i te 500 mita i {city}, {country}</t>
-  </si>
-  <si>
-    <t>Te Hīkotanga i roto i {city}</t>
   </si>
   <si>
     <t>Te Pururuatanga ā-Taupori</t>
@@ -6259,15 +6226,9 @@
     <t>Ngā ūnga mo te whakamahinga waka tāone.</t>
   </si>
   <si>
-    <t>Mā te whakamahinga o ngā hāpori ki ngā wāhi tūwhera ka āhei, ka whakapai ake ngā mahi korikori tinana me te whakapiki i te hauora ā-hinengaro hoki. Ko ngā wāhi tūwhera nei he wāhi mo te whakangahau, mo te whakakoakoa i te wairua, me te whakapiki te whakapai hoki i te taiao o te tāone. Nā te nui o ngā tāngata i rō tāone me te hekenga o ngā wāhi e wātea ana, ko te whakarite i ngā wāhi tūwhera nei he mea matua mo te oranga me te hauora o te taupori. Mā te whakatū wāhi tūwhere i roto i te 400m o ngā kāinga e pātata atu nei ka āhei ngā tāngata te hīkoi haere. He huarahi anō pea te urunga atu ki ngā pākā nui.</t>
-  </si>
-  <si>
     <t>Ngā whakaritenga mo ngā wāhi tūwhera.</t>
   </si>
   <si>
-    <t>Kua whakaputaina te rīpoatatanga katoa me raraunga, ngā kitenga katoa i roto i te</t>
-  </si>
-  <si>
     <t>Raraunga taupori</t>
   </si>
   <si>
@@ -6292,16 +6253,54 @@
     <t>Hunaara Waerehu</t>
   </si>
   <si>
-    <t>% o ngā tāone me whakaritenga i tutuki, nā te whiwhinga moni a te motu.</t>
-  </si>
-  <si>
     <t>Ko ngā paepaetanga nei nō tā mātau tauira mo ngā momo taiao hanga kua whakaritehia hei whainga e ai ki te kaupapa a te World Health Organisation mo te Korikori Tinana, kia heke mā te 15% ngā momo ngangahau ngoikore mā te hīkoi. I kitea ei mātau he taunakitanga mo te heketanga o te korikori tinana i roto i ngā wāhi whakawhitinga ara e 250 ia km² te pururuatanga me ngā wāhi e tino kaha nei pururua (e &gt;15,000 tāngata ia km²). He kaupapa rangahau anō tēnei.</t>
   </si>
   <si>
-    <t>{"Māori":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_city} — {title_series_line1} {title_series_line2} ({city}, {country} — Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally. Te whakamāoritanga Māori: {translation_names}). {city_doi}'}"}</t>
-  </si>
-  <si>
     <t>Whakamāoritanga</t>
+  </si>
+  <si>
+    <t>Tūnga
+    Waka
+    Tāone</t>
+  </si>
+  <si>
+    <t>% o ngā tāone me ngā whakaritenga i tutuki, e ai ki te whiwhinga pūtea ā-motu</t>
+  </si>
+  <si>
+    <t>Kua whakaputaina te rīpoatatanga katoa me ngā raraunga, ngā kitenga katoa i roto i te</t>
+  </si>
+  <si>
+    <t>Te Hīkoitanga i roto i {city}</t>
+  </si>
+  <si>
+    <t>{"Māori":"{'citation_doi':'Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_city} — {title_series_line1} {title_series_line2} ({city}, {country} — Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally. Te Whakamāoritanga nā: {translation_names}). {city_doi}'}"}</t>
+  </si>
+  <si>
+    <t>Ngā Hoa Mahi ā-Rohe ({city})</t>
+  </si>
+  <si>
+    <t>Rapport om by indikatorer for sundhed og bæredygtighed:</t>
+  </si>
+  <si>
+    <t>Internationalt sammenlignet med 25 byer</t>
+  </si>
+  <si>
+    <t>Rapport om by indikatorer for sundhed og bæredygtighed</t>
+  </si>
+  <si>
+    <t>% o te taupori i roto i te rohenga o te 500m mai ngā waka harihari-ā-tāone e āhei ana te haere i roto i te 20 miniti, iti iho rānei.</t>
+  </si>
+  <si>
+    <t>Mā te whakamahinga o ngā hāpori ki ngā wāhi tūwhera ka āhei, ka whakapai ake ngā mahi korikori tinana me te whakapiki i te hauora ā-hinengaro hoki. Ko ngā wāhi tūwhera nei he wāhi mo te whakangahau, mo te whakakoakoa i te wairua, me te whakapiki te whakapai hoki i te taiao o te tāone. Nā te nui o ngā tāngata i rō tāone me te hekenga o ngā wāhi e wātea ana, ko te whakarite i ngā wāhi tūwhera nei he mea matua mo te oranga me te hauora o te taupori. Mā te whakatū wāhi tūwhera i roto i te 400m o ngā kāinga e pātata atu nei ka āhei ngā tāngata te hīkoi haere. He huarahi anō pea te urunga atu ki ngā pākā nui.</t>
+  </si>
+  <si>
+    <t>Paehēneti o te taupori e taea te whāwhā atu ki ngā tāonga me ngā rātonga i roto i te 500 mita i {city}, {country}</t>
+  </si>
+  <si>
+    <t>Cityscape image of Auckland skyline, New Zealand taken from Mt. Eden at sunset.</t>
+  </si>
+  <si>
+    <t>People's motion on subway platform in Auckland Britomart Transport Center, New Zealand</t>
   </si>
 </sst>
 </file>
@@ -8470,7 +8469,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -8567,7 +8566,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -8625,7 +8624,7 @@
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -8812,7 +8811,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -8869,7 +8868,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -8914,7 +8913,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -9156,7 +9155,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -9322,7 +9321,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -9945,10 +9944,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="N36" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O36" t="s">
         <v>26</v>
@@ -10007,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O37" t="s">
         <v>26</v>
@@ -10067,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -10124,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O39" t="s">
         <v>26</v>
@@ -10184,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
@@ -10245,7 +10244,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>28</v>
@@ -10307,7 +10306,7 @@
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>28</v>
@@ -10365,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O43" t="s">
         <v>26</v>
@@ -10421,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O44" t="s">
         <v>26</v>
@@ -10481,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O45" t="s">
         <v>26</v>
@@ -10544,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O46" t="s">
         <v>26</v>
@@ -10604,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
@@ -10668,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -10730,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -10791,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O50" t="s">
         <v>26</v>
@@ -10854,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O51" t="s">
         <v>26</v>
@@ -10914,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
@@ -10978,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
@@ -11040,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
@@ -11101,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O55" t="s">
         <v>26</v>
@@ -11164,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O56" t="s">
         <v>26</v>
@@ -11224,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
@@ -11288,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
@@ -11350,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
@@ -11411,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O60" t="s">
         <v>26</v>
@@ -11474,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O61" t="s">
         <v>26</v>
@@ -11534,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
@@ -11598,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
@@ -11660,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
@@ -11721,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O65" t="s">
         <v>26</v>
@@ -11784,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O66" t="s">
         <v>26</v>
@@ -11844,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
@@ -11908,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
@@ -11970,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
@@ -12031,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O70" t="s">
         <v>26</v>
@@ -12094,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O71" t="s">
         <v>26</v>
@@ -12154,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O72" t="s">
         <v>28</v>
@@ -12218,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O73" t="s">
         <v>28</v>
@@ -12280,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O74" t="s">
         <v>28</v>
@@ -12568,10 +12567,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="N79" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O79" t="s">
         <v>26</v>
@@ -12631,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O80" t="s">
         <v>26</v>
@@ -12691,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O81" t="s">
         <v>28</v>
@@ -12751,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O82" t="s">
         <v>28</v>
@@ -12811,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O83" t="s">
         <v>28</v>
@@ -12871,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O84" t="s">
         <v>28</v>
@@ -12928,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O85" t="s">
         <v>26</v>
@@ -12985,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O86" t="s">
         <v>26</v>
@@ -13042,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O87" t="s">
         <v>26</v>
@@ -13099,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O88" t="s">
         <v>26</v>
@@ -13159,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O89" t="s">
         <v>26</v>
@@ -13219,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O90" t="s">
         <v>26</v>
@@ -13279,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O91" t="s">
         <v>26</v>
@@ -13339,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O92" t="s">
         <v>26</v>
@@ -13399,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O93" t="s">
         <v>26</v>
@@ -13459,7 +13458,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O94" t="s">
         <v>26</v>
@@ -13519,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O95" t="s">
         <v>26</v>
@@ -13579,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O96" t="s">
         <v>26</v>
@@ -13639,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O97" t="s">
         <v>26</v>
@@ -13699,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O98" t="s">
         <v>26</v>
@@ -13759,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O99" t="s">
         <v>26</v>
@@ -13819,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O100" t="s">
         <v>26</v>
@@ -13879,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O101" t="s">
         <v>26</v>
@@ -13939,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O102" t="s">
         <v>26</v>
@@ -13999,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O103" t="s">
         <v>26</v>
@@ -14059,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O104" t="s">
         <v>26</v>
@@ -14119,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O105" t="s">
         <v>26</v>
@@ -14179,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O106" t="s">
         <v>26</v>
@@ -14239,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O107" t="s">
         <v>26</v>
@@ -14299,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O108" t="s">
         <v>26</v>
@@ -14359,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O109" t="s">
         <v>26</v>
@@ -14419,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O110" t="s">
         <v>26</v>
@@ -14479,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O111" t="s">
         <v>26</v>
@@ -14539,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O112" t="s">
         <v>26</v>
@@ -14599,7 +14598,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O113" t="s">
         <v>26</v>
@@ -14659,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O114" t="s">
         <v>26</v>
@@ -14719,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O115" t="s">
         <v>26</v>
@@ -14779,7 +14778,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O116" t="s">
         <v>26</v>
@@ -14839,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O117" t="s">
         <v>26</v>
@@ -14899,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O118" t="s">
         <v>26</v>
@@ -14959,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O119" t="s">
         <v>26</v>
@@ -15019,7 +15018,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O120" t="s">
         <v>26</v>
@@ -15079,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O121" t="s">
         <v>26</v>
@@ -15139,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O122" t="s">
         <v>26</v>
@@ -15199,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O123" t="s">
         <v>26</v>
@@ -15792,7 +15791,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -16056,10 +16055,10 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="N138" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O138" t="s">
         <v>26</v>
@@ -16119,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O139" t="s">
         <v>26</v>
@@ -16179,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O140" t="s">
         <v>28</v>
@@ -16239,7 +16238,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O141" t="s">
         <v>28</v>
@@ -16299,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O142" t="s">
         <v>28</v>
@@ -16359,7 +16358,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O143" t="s">
         <v>28</v>
@@ -16416,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O144" t="s">
         <v>26</v>
@@ -16473,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O145" t="s">
         <v>26</v>
@@ -16530,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O146" t="s">
         <v>26</v>
@@ -16587,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O147" t="s">
         <v>26</v>
@@ -16647,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O148" t="s">
         <v>26</v>
@@ -16707,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O149" t="s">
         <v>26</v>
@@ -16767,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O150" t="s">
         <v>26</v>
@@ -16827,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O151" t="s">
         <v>26</v>
@@ -16887,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O152" t="s">
         <v>26</v>
@@ -16947,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O153" t="s">
         <v>26</v>
@@ -17007,7 +17006,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O154" t="s">
         <v>26</v>
@@ -17067,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O155" t="s">
         <v>26</v>
@@ -17127,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O156" t="s">
         <v>26</v>
@@ -17187,7 +17186,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O157" t="s">
         <v>26</v>
@@ -17247,7 +17246,7 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O158" t="s">
         <v>26</v>
@@ -17307,7 +17306,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O159" t="s">
         <v>26</v>
@@ -17367,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O160" t="s">
         <v>26</v>
@@ -17427,7 +17426,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O161" t="s">
         <v>26</v>
@@ -17487,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O162" t="s">
         <v>26</v>
@@ -17547,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O163" t="s">
         <v>26</v>
@@ -17607,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O164" t="s">
         <v>26</v>
@@ -17667,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O165" t="s">
         <v>26</v>
@@ -17727,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O166" t="s">
         <v>26</v>
@@ -17787,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O167" t="s">
         <v>26</v>
@@ -18015,10 +18014,10 @@
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="N171" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O171" t="s">
         <v>26</v>
@@ -18078,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O172" t="s">
         <v>26</v>
@@ -18138,7 +18137,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O173" t="s">
         <v>28</v>
@@ -18198,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O174" t="s">
         <v>28</v>
@@ -18258,7 +18257,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O175" t="s">
         <v>28</v>
@@ -18318,7 +18317,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O176" t="s">
         <v>28</v>
@@ -18375,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O177" t="s">
         <v>26</v>
@@ -18432,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O178" t="s">
         <v>26</v>
@@ -18489,7 +18488,7 @@
         <v>0</v>
       </c>
       <c r="N179" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O179" t="s">
         <v>26</v>
@@ -18546,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="N180" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O180" t="s">
         <v>26</v>
@@ -18606,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O181" t="s">
         <v>26</v>
@@ -18666,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O182" t="s">
         <v>26</v>
@@ -18726,7 +18725,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O183" t="s">
         <v>26</v>
@@ -18786,7 +18785,7 @@
         <v>0</v>
       </c>
       <c r="N184" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O184" t="s">
         <v>26</v>
@@ -18846,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O185" t="s">
         <v>26</v>
@@ -18900,10 +18899,10 @@
         <v>0</v>
       </c>
       <c r="M186" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="N186" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O186" t="s">
         <v>26</v>
@@ -18961,7 +18960,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O187" t="s">
         <v>208</v>
@@ -19021,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O188" t="s">
         <v>208</v>
@@ -19155,7 +19154,7 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="B191">
         <v>6</v>
@@ -19256,7 +19255,7 @@
         <v>26</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -19998,7 +19997,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -20095,7 +20094,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -20153,7 +20152,7 @@
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -20340,7 +20339,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -20397,7 +20396,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -20442,7 +20441,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -20684,7 +20683,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -20851,7 +20850,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -21468,10 +21467,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="N36" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O36" t="s">
         <v>26</v>
@@ -21531,7 +21530,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O37" t="s">
         <v>26</v>
@@ -21591,7 +21590,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -21648,7 +21647,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O39" t="s">
         <v>26</v>
@@ -21708,7 +21707,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
@@ -21769,7 +21768,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>28</v>
@@ -21831,7 +21830,7 @@
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>28</v>
@@ -21889,7 +21888,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O43" t="s">
         <v>26</v>
@@ -21945,7 +21944,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O44" t="s">
         <v>26</v>
@@ -22005,7 +22004,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O45" t="s">
         <v>26</v>
@@ -22068,7 +22067,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O46" t="s">
         <v>26</v>
@@ -22128,7 +22127,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
@@ -22192,7 +22191,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -22254,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -22315,7 +22314,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O50" t="s">
         <v>26</v>
@@ -22378,7 +22377,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O51" t="s">
         <v>26</v>
@@ -22438,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
@@ -22502,7 +22501,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
@@ -22564,7 +22563,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
@@ -22625,7 +22624,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O55" t="s">
         <v>26</v>
@@ -22688,7 +22687,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O56" t="s">
         <v>26</v>
@@ -22748,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
@@ -22812,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
@@ -22874,7 +22873,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
@@ -22935,7 +22934,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O60" t="s">
         <v>26</v>
@@ -22998,7 +22997,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O61" t="s">
         <v>26</v>
@@ -23058,7 +23057,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
@@ -23122,7 +23121,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
@@ -23184,7 +23183,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
@@ -23245,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O65" t="s">
         <v>26</v>
@@ -23308,7 +23307,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O66" t="s">
         <v>26</v>
@@ -23368,7 +23367,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
@@ -23432,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
@@ -23494,7 +23493,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
@@ -23555,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O70" t="s">
         <v>26</v>
@@ -23618,7 +23617,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O71" t="s">
         <v>26</v>
@@ -23678,7 +23677,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O72" t="s">
         <v>28</v>
@@ -23742,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O73" t="s">
         <v>28</v>
@@ -23804,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O74" t="s">
         <v>28</v>
@@ -24092,10 +24091,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="N79" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O79" t="s">
         <v>26</v>
@@ -24155,7 +24154,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O80" t="s">
         <v>26</v>
@@ -24215,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O81" t="s">
         <v>28</v>
@@ -24275,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O82" t="s">
         <v>28</v>
@@ -24335,7 +24334,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O83" t="s">
         <v>28</v>
@@ -24395,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O84" t="s">
         <v>28</v>
@@ -24452,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O85" t="s">
         <v>26</v>
@@ -24509,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O86" t="s">
         <v>26</v>
@@ -24566,7 +24565,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O87" t="s">
         <v>26</v>
@@ -24623,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O88" t="s">
         <v>26</v>
@@ -24683,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O89" t="s">
         <v>26</v>
@@ -24743,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O90" t="s">
         <v>26</v>
@@ -24803,7 +24802,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O91" t="s">
         <v>26</v>
@@ -24863,7 +24862,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O92" t="s">
         <v>26</v>
@@ -24923,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O93" t="s">
         <v>26</v>
@@ -24983,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O94" t="s">
         <v>26</v>
@@ -25043,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O95" t="s">
         <v>26</v>
@@ -25103,7 +25102,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O96" t="s">
         <v>26</v>
@@ -25163,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O97" t="s">
         <v>26</v>
@@ -25223,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O98" t="s">
         <v>26</v>
@@ -25283,7 +25282,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O99" t="s">
         <v>26</v>
@@ -25343,7 +25342,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O100" t="s">
         <v>26</v>
@@ -25403,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O101" t="s">
         <v>26</v>
@@ -25463,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O102" t="s">
         <v>26</v>
@@ -25523,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O103" t="s">
         <v>26</v>
@@ -25583,7 +25582,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O104" t="s">
         <v>26</v>
@@ -25643,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O105" t="s">
         <v>26</v>
@@ -25703,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O106" t="s">
         <v>26</v>
@@ -25763,7 +25762,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O107" t="s">
         <v>26</v>
@@ -25823,7 +25822,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O108" t="s">
         <v>26</v>
@@ -25883,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O109" t="s">
         <v>26</v>
@@ -25943,7 +25942,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O110" t="s">
         <v>26</v>
@@ -26003,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O111" t="s">
         <v>26</v>
@@ -26063,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O112" t="s">
         <v>26</v>
@@ -26123,7 +26122,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O113" t="s">
         <v>26</v>
@@ -26183,7 +26182,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O114" t="s">
         <v>26</v>
@@ -26243,7 +26242,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O115" t="s">
         <v>26</v>
@@ -26303,7 +26302,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O116" t="s">
         <v>26</v>
@@ -26363,7 +26362,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O117" t="s">
         <v>26</v>
@@ -26423,7 +26422,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O118" t="s">
         <v>26</v>
@@ -26483,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O119" t="s">
         <v>26</v>
@@ -26543,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O120" t="s">
         <v>26</v>
@@ -26603,7 +26602,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O121" t="s">
         <v>26</v>
@@ -26663,7 +26662,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O122" t="s">
         <v>26</v>
@@ -26723,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O123" t="s">
         <v>26</v>
@@ -27316,7 +27315,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -27580,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="N138" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O138" t="s">
         <v>26</v>
@@ -27643,7 +27642,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O139" t="s">
         <v>26</v>
@@ -27703,7 +27702,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O140" t="s">
         <v>28</v>
@@ -27763,7 +27762,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O141" t="s">
         <v>28</v>
@@ -27823,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O142" t="s">
         <v>28</v>
@@ -27883,7 +27882,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O143" t="s">
         <v>28</v>
@@ -27940,7 +27939,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O144" t="s">
         <v>26</v>
@@ -27997,7 +27996,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O145" t="s">
         <v>26</v>
@@ -28054,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O146" t="s">
         <v>26</v>
@@ -28111,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O147" t="s">
         <v>26</v>
@@ -28171,7 +28170,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O148" t="s">
         <v>26</v>
@@ -28231,7 +28230,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O149" t="s">
         <v>26</v>
@@ -28291,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O150" t="s">
         <v>26</v>
@@ -28351,7 +28350,7 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O151" t="s">
         <v>26</v>
@@ -28411,7 +28410,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O152" t="s">
         <v>26</v>
@@ -28471,7 +28470,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O153" t="s">
         <v>26</v>
@@ -28531,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O154" t="s">
         <v>26</v>
@@ -28591,7 +28590,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O155" t="s">
         <v>26</v>
@@ -28651,7 +28650,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O156" t="s">
         <v>26</v>
@@ -28711,7 +28710,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O157" t="s">
         <v>26</v>
@@ -28771,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O158" t="s">
         <v>26</v>
@@ -28831,7 +28830,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O159" t="s">
         <v>26</v>
@@ -28891,7 +28890,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O160" t="s">
         <v>26</v>
@@ -28951,7 +28950,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O161" t="s">
         <v>26</v>
@@ -29011,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O162" t="s">
         <v>26</v>
@@ -29071,7 +29070,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O163" t="s">
         <v>26</v>
@@ -29131,7 +29130,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O164" t="s">
         <v>26</v>
@@ -29191,7 +29190,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O165" t="s">
         <v>26</v>
@@ -29251,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O166" t="s">
         <v>26</v>
@@ -29311,7 +29310,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O167" t="s">
         <v>26</v>
@@ -29539,10 +29538,10 @@
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="N171" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O171" t="s">
         <v>26</v>
@@ -29602,7 +29601,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O172" t="s">
         <v>26</v>
@@ -29662,7 +29661,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O173" t="s">
         <v>28</v>
@@ -29722,7 +29721,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O174" t="s">
         <v>28</v>
@@ -29782,7 +29781,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O175" t="s">
         <v>28</v>
@@ -29842,7 +29841,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O176" t="s">
         <v>28</v>
@@ -29899,7 +29898,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O177" t="s">
         <v>26</v>
@@ -29956,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O178" t="s">
         <v>26</v>
@@ -30013,7 +30012,7 @@
         <v>0</v>
       </c>
       <c r="N179" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O179" t="s">
         <v>26</v>
@@ -30070,7 +30069,7 @@
         <v>0</v>
       </c>
       <c r="N180" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O180" t="s">
         <v>26</v>
@@ -30130,7 +30129,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O181" t="s">
         <v>26</v>
@@ -30190,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O182" t="s">
         <v>26</v>
@@ -30250,7 +30249,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O183" t="s">
         <v>26</v>
@@ -30310,7 +30309,7 @@
         <v>0</v>
       </c>
       <c r="N184" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O184" t="s">
         <v>26</v>
@@ -30370,7 +30369,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="O185" t="s">
         <v>26</v>
@@ -30424,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="M186" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="N186" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O186" t="s">
         <v>26</v>
@@ -30485,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O187" t="s">
         <v>208</v>
@@ -30545,7 +30544,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O188" t="s">
         <v>208</v>
@@ -30679,7 +30678,7 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="B191">
         <v>8</v>
@@ -30780,7 +30779,7 @@
         <v>26</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -30926,11 +30925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L132" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L140" sqref="L140"/>
+      <selection pane="bottomRight" activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30982,7 +30981,7 @@
         <v>221</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>220</v>
@@ -31025,10 +31024,10 @@
         <v>754</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>483</v>
@@ -31040,10 +31039,10 @@
         <v>482</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>220</v>
@@ -31061,13 +31060,13 @@
         <v>345</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>346</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -31077,7 +31076,7 @@
         <v>146</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="C3" s="53">
         <v>1</v>
@@ -31138,58 +31137,58 @@
         <v>146</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>1662</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>1689</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>1690</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>1691</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>1691</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>1693</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1689</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>1690</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>1691</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>1694</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>1695</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>1696</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>1697</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>1697</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>1699</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>1700</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>1701</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -31211,25 +31210,25 @@
         <v>890</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1890</v>
+        <v>2038</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>440</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>462</v>
@@ -31238,19 +31237,19 @@
         <v>716</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>465</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
@@ -31275,22 +31274,22 @@
         <v>892</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1366</v>
+        <v>2039</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>463</v>
@@ -31299,19 +31298,19 @@
         <v>463</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>467</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>755</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
@@ -31336,22 +31335,22 @@
         <v>894</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>172</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>172</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>407</v>
@@ -31360,7 +31359,7 @@
         <v>407</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>302</v>
@@ -31372,7 +31371,7 @@
         <v>322</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
@@ -32180,7 +32179,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -32212,7 +32211,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="11"/>
       <c r="K33" s="22" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="11"/>
@@ -32537,7 +32536,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="22"/>
       <c r="J43" s="11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -32603,7 +32602,7 @@
       <c r="H45" s="11"/>
       <c r="I45" s="22"/>
       <c r="J45" s="11" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -33019,55 +33018,55 @@
         <v>18</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
@@ -33077,58 +33076,58 @@
         <v>147</v>
       </c>
       <c r="B59" s="19" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="Q59" s="11" t="s">
         <v>1451</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>1452</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>1711</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>1452</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>1452</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>1452</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>1452</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>1452</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>1452</v>
-      </c>
-      <c r="N59" s="12" t="s">
-        <v>1452</v>
-      </c>
-      <c r="O59" s="12" t="s">
-        <v>1452</v>
-      </c>
-      <c r="P59" s="12" t="s">
-        <v>1452</v>
-      </c>
-      <c r="Q59" s="11" t="s">
-        <v>1456</v>
-      </c>
       <c r="R59" s="12" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="S59" s="11" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
@@ -33138,58 +33137,58 @@
         <v>147</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="Q60" s="11" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="S60" s="11" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
@@ -33199,58 +33198,58 @@
         <v>147</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="Q61" s="11" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="S61" s="11" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
@@ -33275,7 +33274,7 @@
         <v>474</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>439</v>
@@ -33287,7 +33286,7 @@
         <v>450</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="L62" s="22" t="s">
         <v>605</v>
@@ -33333,25 +33332,25 @@
         <v>896</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>441</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>408</v>
@@ -33360,7 +33359,7 @@
         <v>277</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="P63" s="9" t="s">
         <v>298</v>
@@ -33397,22 +33396,22 @@
         <v>326</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="I64" s="22" t="s">
         <v>487</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>409</v>
@@ -33427,7 +33426,7 @@
         <v>278</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="R64" s="9" t="s">
         <v>317</v>
@@ -33458,22 +33457,22 @@
         <v>897</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>254</v>
@@ -33488,7 +33487,7 @@
         <v>279</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="R65" s="9" t="s">
         <v>758</v>
@@ -33519,22 +33518,22 @@
         <v>898</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>245</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>442</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>410</v>
@@ -33560,7 +33559,7 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
     </row>
-    <row r="67" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>147</v>
       </c>
@@ -33580,22 +33579,22 @@
         <v>899</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>246</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>1976</v>
+        <v>2032</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>255</v>
@@ -33616,7 +33615,7 @@
         <v>759</v>
       </c>
       <c r="S67" s="9" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
@@ -33641,10 +33640,10 @@
         <v>900</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="I68" s="22" t="s">
         <v>488</v>
@@ -33653,10 +33652,10 @@
         <v>443</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>256</v>
@@ -33677,7 +33676,7 @@
         <v>760</v>
       </c>
       <c r="S68" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
@@ -33702,10 +33701,10 @@
         <v>902</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="I69" s="22" t="s">
         <v>489</v>
@@ -33714,10 +33713,10 @@
         <v>444</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>257</v>
@@ -33732,13 +33731,13 @@
         <v>301</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>761</v>
       </c>
       <c r="S69" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
@@ -33751,7 +33750,7 @@
         <v>157</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>696</v>
@@ -33763,22 +33762,22 @@
         <v>904</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>749</v>
@@ -33787,19 +33786,19 @@
         <v>411</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="P70" s="9" t="s">
         <v>1007</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="R70" s="9" t="s">
         <v>762</v>
       </c>
       <c r="S70" s="9" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
@@ -33824,7 +33823,7 @@
         <v>330</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>247</v>
@@ -33836,7 +33835,7 @@
         <v>445</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="L71" s="22" t="s">
         <v>603</v>
@@ -33885,10 +33884,10 @@
         <v>905</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="I72" s="22" t="s">
         <v>491</v>
@@ -33897,10 +33896,10 @@
         <v>446</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>259</v>
@@ -33946,7 +33945,7 @@
         <v>331</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>248</v>
@@ -33958,7 +33957,7 @@
         <v>447</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="L73" s="22" t="s">
         <v>604</v>
@@ -34007,22 +34006,22 @@
         <v>906</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>448</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>424</v>
@@ -34031,13 +34030,13 @@
         <v>422</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="P74" s="9" t="s">
         <v>468</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="R74" s="9" t="s">
         <v>764</v>
@@ -34062,28 +34061,28 @@
         <v>883</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>1982</v>
+        <v>2041</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>425</v>
@@ -34092,19 +34091,19 @@
         <v>812</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="R75" s="9" t="s">
         <v>765</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
@@ -34129,22 +34128,22 @@
         <v>908</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>602</v>
@@ -34153,19 +34152,19 @@
         <v>813</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="R76" s="9" t="s">
         <v>766</v>
       </c>
       <c r="S76" s="9" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
@@ -34178,55 +34177,55 @@
         <v>577</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J77" s="9" t="s">
         <v>1745</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="K77" s="22" t="s">
         <v>1746</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="L77" s="22" t="s">
+        <v>1975</v>
+      </c>
+      <c r="M77" s="9" t="s">
         <v>1747</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="N77" s="11" t="s">
         <v>1748</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="O77" s="9" t="s">
         <v>1749</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>1907</v>
-      </c>
-      <c r="I77" s="22" t="s">
+      <c r="P77" s="9" t="s">
         <v>1750</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="Q77" s="9" t="s">
         <v>1751</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="R77" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="S77" s="9" t="s">
         <v>1752</v>
-      </c>
-      <c r="L77" s="22" t="s">
-        <v>1984</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>1753</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>1754</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>1755</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>1756</v>
-      </c>
-      <c r="Q77" s="9" t="s">
-        <v>1757</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>1630</v>
-      </c>
-      <c r="S77" s="9" t="s">
-        <v>1758</v>
       </c>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
@@ -34239,55 +34238,55 @@
         <v>578</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I78" s="22" t="s">
         <v>1759</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="J78" s="9" t="s">
         <v>1760</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="K78" s="22" t="s">
         <v>1761</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="L78" s="22" t="s">
+        <v>1976</v>
+      </c>
+      <c r="M78" s="9" t="s">
         <v>1762</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="N78" s="11" t="s">
         <v>1763</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="O78" s="9" t="s">
         <v>1764</v>
       </c>
-      <c r="I78" s="22" t="s">
+      <c r="P78" s="9" t="s">
         <v>1765</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="Q78" s="9" t="s">
         <v>1766</v>
       </c>
-      <c r="K78" s="22" t="s">
+      <c r="R78" s="9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="S78" s="9" t="s">
         <v>1767</v>
-      </c>
-      <c r="L78" s="22" t="s">
-        <v>1985</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>1768</v>
-      </c>
-      <c r="N78" s="11" t="s">
-        <v>1769</v>
-      </c>
-      <c r="O78" s="9" t="s">
-        <v>1770</v>
-      </c>
-      <c r="P78" s="9" t="s">
-        <v>1771</v>
-      </c>
-      <c r="Q78" s="9" t="s">
-        <v>1772</v>
-      </c>
-      <c r="R78" s="9" t="s">
-        <v>1631</v>
-      </c>
-      <c r="S78" s="9" t="s">
-        <v>1773</v>
       </c>
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
@@ -34300,55 +34299,55 @@
         <v>576</v>
       </c>
       <c r="C79" s="10" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I79" s="22" t="s">
         <v>1774</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="J79" s="9" t="s">
         <v>1775</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="K79" s="22" t="s">
         <v>1776</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="L79" s="22" t="s">
+        <v>1977</v>
+      </c>
+      <c r="M79" s="9" t="s">
         <v>1777</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="N79" s="9" t="s">
         <v>1778</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="O79" s="9" t="s">
         <v>1779</v>
       </c>
-      <c r="I79" s="22" t="s">
+      <c r="P79" s="9" t="s">
         <v>1780</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="Q79" s="9" t="s">
         <v>1781</v>
       </c>
-      <c r="K79" s="22" t="s">
+      <c r="R79" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="S79" s="9" t="s">
         <v>1782</v>
-      </c>
-      <c r="L79" s="22" t="s">
-        <v>1986</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>1783</v>
-      </c>
-      <c r="N79" s="9" t="s">
-        <v>1784</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>1785</v>
-      </c>
-      <c r="P79" s="9" t="s">
-        <v>1786</v>
-      </c>
-      <c r="Q79" s="9" t="s">
-        <v>1787</v>
-      </c>
-      <c r="R79" s="9" t="s">
-        <v>1629</v>
-      </c>
-      <c r="S79" s="9" t="s">
-        <v>1788</v>
       </c>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -34373,22 +34372,22 @@
         <v>910</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>449</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>261</v>
@@ -34403,7 +34402,7 @@
         <v>261</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="R80" s="9" t="s">
         <v>321</v>
@@ -34422,10 +34421,10 @@
         <v>167</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>911</v>
@@ -34434,43 +34433,43 @@
         <v>912</v>
       </c>
       <c r="G81" s="10" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J81" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>1560</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>1564</v>
-      </c>
       <c r="K81" s="22" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="R81" s="9" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="S81" s="9" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
@@ -34495,10 +34494,10 @@
         <v>913</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="I82" s="22" t="s">
         <v>493</v>
@@ -34507,10 +34506,10 @@
         <v>451</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>750</v>
@@ -34531,7 +34530,7 @@
         <v>768</v>
       </c>
       <c r="S82" s="9" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
@@ -34556,22 +34555,22 @@
         <v>915</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>751</v>
@@ -34580,19 +34579,19 @@
         <v>721</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="R83" s="9" t="s">
         <v>769</v>
       </c>
       <c r="S83" s="9" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
@@ -34617,22 +34616,22 @@
         <v>917</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>586</v>
@@ -34641,10 +34640,10 @@
         <v>586</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="Q84" s="9" t="s">
         <v>592</v>
@@ -34678,19 +34677,19 @@
         <v>1001</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>1002</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="L85" s="22"/>
       <c r="M85" s="11" t="s">
@@ -34700,7 +34699,7 @@
         <v>722</v>
       </c>
       <c r="O85" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P85" s="11" t="s">
         <v>1009</v>
@@ -34712,7 +34711,7 @@
         <v>771</v>
       </c>
       <c r="S85" s="11" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
@@ -34737,19 +34736,19 @@
         <v>1003</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>1004</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="L86" s="22"/>
       <c r="M86" s="11" t="s">
@@ -34759,7 +34758,7 @@
         <v>723</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="P86" s="11" t="s">
         <v>590</v>
@@ -34771,7 +34770,7 @@
         <v>772</v>
       </c>
       <c r="S86" s="11" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
@@ -34796,22 +34795,22 @@
         <v>919</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>1365</v>
+        <v>2040</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>615</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="M87" s="11" t="s">
         <v>611</v>
@@ -34820,7 +34819,7 @@
         <v>724</v>
       </c>
       <c r="O87" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="P87" s="11" t="s">
         <v>612</v>
@@ -34832,7 +34831,7 @@
         <v>614</v>
       </c>
       <c r="S87" s="11" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
@@ -34842,58 +34841,58 @@
         <v>146</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="C88" s="12" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>1921</v>
+      </c>
+      <c r="K88" s="22" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>1923</v>
+      </c>
+      <c r="N88" s="11" t="s">
         <v>1924</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="O88" s="11" t="s">
+        <v>1628</v>
+      </c>
+      <c r="P88" s="11" t="s">
         <v>1925</v>
       </c>
-      <c r="E88" s="11" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G88" s="12" t="s">
+      <c r="Q88" s="11" t="s">
         <v>1926</v>
       </c>
-      <c r="H88" s="11" t="s">
-        <v>1500</v>
-      </c>
-      <c r="I88" s="22" t="s">
-        <v>1927</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>1928</v>
-      </c>
-      <c r="K88" s="22" t="s">
-        <v>1929</v>
-      </c>
-      <c r="L88" s="22" t="s">
-        <v>1992</v>
-      </c>
-      <c r="M88" s="11" t="s">
-        <v>1930</v>
-      </c>
-      <c r="N88" s="11" t="s">
-        <v>1931</v>
-      </c>
-      <c r="O88" s="11" t="s">
-        <v>1633</v>
-      </c>
-      <c r="P88" s="11" t="s">
-        <v>1932</v>
-      </c>
-      <c r="Q88" s="11" t="s">
-        <v>1933</v>
-      </c>
       <c r="R88" s="11" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="S88" s="11" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
@@ -34906,55 +34905,55 @@
         <v>182</v>
       </c>
       <c r="C89" s="12" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I89" s="22" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K89" s="22" t="s">
+        <v>1932</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>1984</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>1933</v>
+      </c>
+      <c r="N89" s="11" t="s">
         <v>1934</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="O89" s="11" t="s">
+        <v>1864</v>
+      </c>
+      <c r="P89" s="11" t="s">
         <v>1935</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="Q89" s="11" t="s">
+        <v>1936</v>
+      </c>
+      <c r="R89" s="11" t="s">
         <v>1866</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>1867</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>1936</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>1868</v>
-      </c>
-      <c r="I89" s="22" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>1938</v>
-      </c>
-      <c r="K89" s="22" t="s">
-        <v>1939</v>
-      </c>
-      <c r="L89" s="22" t="s">
-        <v>1993</v>
-      </c>
-      <c r="M89" s="11" t="s">
-        <v>1940</v>
-      </c>
-      <c r="N89" s="11" t="s">
-        <v>1941</v>
-      </c>
-      <c r="O89" s="11" t="s">
-        <v>1870</v>
-      </c>
-      <c r="P89" s="11" t="s">
-        <v>1942</v>
-      </c>
-      <c r="Q89" s="11" t="s">
-        <v>1943</v>
-      </c>
-      <c r="R89" s="11" t="s">
-        <v>1872</v>
-      </c>
       <c r="S89" s="11" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
@@ -34967,55 +34966,55 @@
         <v>251</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>920</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="L90" s="54" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="N90" s="11" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="P90" s="11" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="Q90" s="11" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="R90" s="11" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="S90" s="11" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
@@ -35034,49 +35033,49 @@
         <v>579</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="J91" s="11" t="s">
         <v>608</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>1995</v>
+        <v>2043</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="N91" s="11" t="s">
         <v>725</v>
       </c>
       <c r="O91" s="11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="P91" s="11" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="Q91" s="11" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="R91" s="11" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="S91" s="11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
@@ -35101,22 +35100,22 @@
         <v>921</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>1996</v>
+        <v>2035</v>
       </c>
       <c r="M92" s="11" t="s">
         <v>587</v>
@@ -35125,19 +35124,19 @@
         <v>587</v>
       </c>
       <c r="O92" s="11" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="P92" s="11" t="s">
         <v>1010</v>
       </c>
       <c r="Q92" s="11" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="R92" s="11" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="S92" s="11" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
@@ -35162,22 +35161,22 @@
         <v>998</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="I93" s="22" t="s">
         <v>499</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="M93" s="11" t="s">
         <v>505</v>
@@ -35186,7 +35185,7 @@
         <v>505</v>
       </c>
       <c r="O93" s="11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="P93" s="11" t="s">
         <v>469</v>
@@ -35195,10 +35194,10 @@
         <v>507</v>
       </c>
       <c r="R93" s="11" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="S93" s="11" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
@@ -35223,22 +35222,22 @@
         <v>923</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="M94" s="11" t="s">
         <v>412</v>
@@ -35247,19 +35246,19 @@
         <v>726</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="P94" s="11" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="Q94" s="11" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="R94" s="11" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="S94" s="11" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
@@ -35284,22 +35283,22 @@
         <v>999</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="I95" s="22" t="s">
         <v>500</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="M95" s="11" t="s">
         <v>506</v>
@@ -35308,7 +35307,7 @@
         <v>506</v>
       </c>
       <c r="O95" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="P95" s="11" t="s">
         <v>470</v>
@@ -35317,7 +35316,7 @@
         <v>508</v>
       </c>
       <c r="R95" s="11" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="S95" s="11" t="s">
         <v>598</v>
@@ -35342,25 +35341,25 @@
         <v>924</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="M96" s="11" t="s">
         <v>413</v>
@@ -35369,19 +35368,19 @@
         <v>814</v>
       </c>
       <c r="O96" s="11" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="P96" s="11" t="s">
         <v>1011</v>
       </c>
       <c r="Q96" s="11" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="R96" s="11" t="s">
         <v>775</v>
       </c>
       <c r="S96" s="11" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
@@ -35406,22 +35405,22 @@
         <v>926</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I97" s="22" t="s">
         <v>494</v>
       </c>
       <c r="J97" s="11" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="M97" s="11" t="s">
         <v>414</v>
@@ -35442,7 +35441,7 @@
         <v>776</v>
       </c>
       <c r="S97" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
@@ -35455,55 +35454,55 @@
         <v>40</v>
       </c>
       <c r="C98" s="12" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I98" s="22" t="s">
+        <v>1824</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K98" s="22" t="s">
+        <v>1823</v>
+      </c>
+      <c r="L98" s="22" t="s">
+        <v>2033</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>1818</v>
+      </c>
+      <c r="O98" s="11" t="s">
+        <v>1819</v>
+      </c>
+      <c r="P98" s="11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="Q98" s="11" t="s">
+        <v>1577</v>
+      </c>
+      <c r="R98" s="11" t="s">
+        <v>1821</v>
+      </c>
+      <c r="S98" s="11" t="s">
         <v>1822</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>1834</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>1832</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>1831</v>
-      </c>
-      <c r="I98" s="22" t="s">
-        <v>1830</v>
-      </c>
-      <c r="J98" s="11" t="s">
-        <v>1851</v>
-      </c>
-      <c r="K98" s="22" t="s">
-        <v>1829</v>
-      </c>
-      <c r="L98" s="22" t="s">
-        <v>2043</v>
-      </c>
-      <c r="M98" s="11" t="s">
-        <v>1823</v>
-      </c>
-      <c r="N98" s="11" t="s">
-        <v>1824</v>
-      </c>
-      <c r="O98" s="11" t="s">
-        <v>1825</v>
-      </c>
-      <c r="P98" s="11" t="s">
-        <v>1826</v>
-      </c>
-      <c r="Q98" s="11" t="s">
-        <v>1582</v>
-      </c>
-      <c r="R98" s="11" t="s">
-        <v>1827</v>
-      </c>
-      <c r="S98" s="11" t="s">
-        <v>1828</v>
       </c>
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
@@ -35522,28 +35521,28 @@
         <v>879</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="M99" s="11" t="s">
         <v>415</v>
@@ -35552,19 +35551,19 @@
         <v>877</v>
       </c>
       <c r="O99" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="P99" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="P99" s="11" t="s">
-        <v>1099</v>
-      </c>
       <c r="Q99" s="11" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="R99" s="11" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="S99" s="11" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
@@ -35583,28 +35582,28 @@
         <v>880</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="M100" s="11" t="s">
         <v>416</v>
@@ -35613,19 +35612,19 @@
         <v>878</v>
       </c>
       <c r="O100" s="11" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="P100" s="11" t="s">
         <v>416</v>
       </c>
       <c r="Q100" s="11" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="R100" s="11" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="S100" s="11" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
@@ -35650,22 +35649,22 @@
         <v>928</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J101" s="11" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="M101" s="11" t="s">
         <v>417</v>
@@ -35683,10 +35682,10 @@
         <v>372</v>
       </c>
       <c r="R101" s="11" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="S101" s="11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
@@ -35708,25 +35707,25 @@
         <v>929</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J102" s="11" t="s">
         <v>452</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="M102" s="11" t="s">
         <v>418</v>
@@ -35744,10 +35743,10 @@
         <v>373</v>
       </c>
       <c r="R102" s="11" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="S102" s="11" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
@@ -35772,31 +35771,31 @@
         <v>931</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="I103" s="22" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J103" s="11" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="N103" s="11" t="s">
         <v>727</v>
       </c>
       <c r="O103" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="P103" s="11" t="s">
         <v>306</v>
@@ -35805,10 +35804,10 @@
         <v>374</v>
       </c>
       <c r="R103" s="11" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="S103" s="11" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
@@ -35833,22 +35832,22 @@
         <v>933</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="L104" s="22" t="s">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="M104" s="11" t="s">
         <v>262</v>
@@ -35866,10 +35865,10 @@
         <v>375</v>
       </c>
       <c r="R104" s="11" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="S104" s="11" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
@@ -35894,22 +35893,22 @@
         <v>935</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="I105" s="22" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="L105" s="22" t="s">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="M105" s="11" t="s">
         <v>263</v>
@@ -35918,7 +35917,7 @@
         <v>263</v>
       </c>
       <c r="O105" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="P105" s="11" t="s">
         <v>308</v>
@@ -35927,10 +35926,10 @@
         <v>376</v>
       </c>
       <c r="R105" s="11" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="S105" s="11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
@@ -35955,22 +35954,22 @@
         <v>937</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="L106" s="22" t="s">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="M106" s="11" t="s">
         <v>264</v>
@@ -35979,19 +35978,19 @@
         <v>264</v>
       </c>
       <c r="O106" s="11" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="P106" s="11" t="s">
         <v>309</v>
       </c>
       <c r="Q106" s="11" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="R106" s="11" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="S106" s="11" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
@@ -36004,7 +36003,7 @@
         <v>51</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>800</v>
@@ -36016,43 +36015,43 @@
         <v>939</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="N107" s="14" t="s">
         <v>818</v>
       </c>
       <c r="O107" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="P107" s="11" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="Q107" s="11" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="R107" s="11" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="S107" s="11" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
@@ -36065,7 +36064,7 @@
         <v>870</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>801</v>
@@ -36077,22 +36076,22 @@
         <v>941</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="J108" s="11" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="M108" s="11" t="s">
         <v>502</v>
@@ -36101,7 +36100,7 @@
         <v>819</v>
       </c>
       <c r="O108" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="P108" s="11" t="s">
         <v>1012</v>
@@ -36113,7 +36112,7 @@
         <v>472</v>
       </c>
       <c r="S108" s="11" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
@@ -36126,7 +36125,7 @@
         <v>875</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>802</v>
@@ -36138,22 +36137,22 @@
         <v>943</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="I109" s="22" t="s">
         <v>501</v>
       </c>
       <c r="J109" s="11" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="M109" s="11" t="s">
         <v>503</v>
@@ -36162,7 +36161,7 @@
         <v>820</v>
       </c>
       <c r="O109" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="P109" s="11" t="s">
         <v>471</v>
@@ -36187,7 +36186,7 @@
         <v>876</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>803</v>
@@ -36199,22 +36198,22 @@
         <v>945</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="J110" s="11" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="M110" s="11" t="s">
         <v>504</v>
@@ -36223,10 +36222,10 @@
         <v>504</v>
       </c>
       <c r="O110" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="P110" s="11" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="Q110" s="11" t="s">
         <v>428</v>
@@ -36235,7 +36234,7 @@
         <v>473</v>
       </c>
       <c r="S110" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
@@ -36260,10 +36259,10 @@
         <v>910</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I111" s="22" t="s">
         <v>495</v>
@@ -36272,10 +36271,10 @@
         <v>453</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="L111" s="22" t="s">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="M111" s="11" t="s">
         <v>265</v>
@@ -36290,13 +36289,13 @@
         <v>265</v>
       </c>
       <c r="Q111" s="11" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="R111" s="11" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="S111" s="11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
@@ -36333,7 +36332,7 @@
         <v>454</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="L112" s="22" t="s">
         <v>606</v>
@@ -36354,7 +36353,7 @@
         <v>377</v>
       </c>
       <c r="R112" s="11" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="S112" s="11" t="s">
         <v>359</v>
@@ -36385,7 +36384,7 @@
         <v>485</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="I113" s="22" t="s">
         <v>497</v>
@@ -36394,10 +36393,10 @@
         <v>455</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="M113" s="11" t="s">
         <v>266</v>
@@ -36406,10 +36405,10 @@
         <v>266</v>
       </c>
       <c r="O113" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="Q113" s="11" t="s">
         <v>378</v>
@@ -36443,22 +36442,22 @@
         <v>948</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="M114" s="11" t="s">
         <v>267</v>
@@ -36473,13 +36472,13 @@
         <v>1013</v>
       </c>
       <c r="Q114" s="11" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="R114" s="11" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="S114" s="11" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
@@ -36504,22 +36503,22 @@
         <v>949</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="M115" s="11" t="s">
         <v>420</v>
@@ -36534,13 +36533,13 @@
         <v>290</v>
       </c>
       <c r="Q115" s="11" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="R115" s="11" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="S115" s="11" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
@@ -36565,22 +36564,22 @@
         <v>951</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="M116" s="11" t="s">
         <v>268</v>
@@ -36589,7 +36588,7 @@
         <v>729</v>
       </c>
       <c r="O116" s="11" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="P116" s="11" t="s">
         <v>291</v>
@@ -36601,7 +36600,7 @@
         <v>777</v>
       </c>
       <c r="S116" s="11" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
@@ -36626,22 +36625,22 @@
         <v>953</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="I117" s="22" t="s">
         <v>498</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="M117" s="11" t="s">
         <v>269</v>
@@ -36656,13 +36655,13 @@
         <v>292</v>
       </c>
       <c r="Q117" s="11" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="R117" s="11" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="S117" s="11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
@@ -36687,22 +36686,22 @@
         <v>955</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="L118" s="22" t="s">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="M118" s="11" t="s">
         <v>270</v>
@@ -36717,10 +36716,10 @@
         <v>311</v>
       </c>
       <c r="Q118" s="11" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="R118" s="11" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="S118" s="11" t="s">
         <v>361</v>
@@ -36748,22 +36747,22 @@
         <v>957</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="M119" s="11" t="s">
         <v>271</v>
@@ -36781,10 +36780,10 @@
         <v>380</v>
       </c>
       <c r="R119" s="11" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="S119" s="11" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
@@ -36809,22 +36808,22 @@
         <v>959</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="L120" s="22" t="s">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="M120" s="11" t="s">
         <v>272</v>
@@ -36833,7 +36832,7 @@
         <v>823</v>
       </c>
       <c r="O120" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="P120" s="11" t="s">
         <v>1014</v>
@@ -36845,7 +36844,7 @@
         <v>324</v>
       </c>
       <c r="S120" s="11" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
@@ -36870,22 +36869,22 @@
         <v>961</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="I121" s="22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="K121" s="22" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="L121" s="22" t="s">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="M121" s="11" t="s">
         <v>273</v>
@@ -36894,19 +36893,19 @@
         <v>824</v>
       </c>
       <c r="O121" s="11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="P121" s="11" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="Q121" s="11" t="s">
         <v>382</v>
       </c>
       <c r="R121" s="11" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="S121" s="11" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
@@ -36934,7 +36933,7 @@
         <v>619</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="I122" s="22" t="s">
         <v>620</v>
@@ -36943,10 +36942,10 @@
         <v>621</v>
       </c>
       <c r="K122" s="22" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="L122" s="22" t="s">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="M122" s="11" t="s">
         <v>622</v>
@@ -36955,7 +36954,7 @@
         <v>622</v>
       </c>
       <c r="O122" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="P122" s="11" t="s">
         <v>623</v>
@@ -36967,7 +36966,7 @@
         <v>773</v>
       </c>
       <c r="S122" s="11" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
@@ -36992,22 +36991,22 @@
         <v>963</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="I123" s="22" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="K123" s="22" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="L123" s="22" t="s">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="M123" s="11" t="s">
         <v>631</v>
@@ -37016,19 +37015,19 @@
         <v>731</v>
       </c>
       <c r="O123" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="P123" s="11" t="s">
         <v>633</v>
       </c>
       <c r="Q123" s="11" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="R123" s="11" t="s">
         <v>778</v>
       </c>
       <c r="S123" s="11" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
@@ -37041,55 +37040,55 @@
         <v>232</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H124" s="11" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I124" s="22" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K124" s="22" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L124" s="22" t="s">
+        <v>2030</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="N124" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="O124" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P124" s="11" t="s">
         <v>1635</v>
       </c>
-      <c r="I124" s="22" t="s">
+      <c r="Q124" s="11" t="s">
         <v>1636</v>
-      </c>
-      <c r="J124" s="11" t="s">
-        <v>1637</v>
-      </c>
-      <c r="K124" s="22" t="s">
-        <v>1315</v>
-      </c>
-      <c r="L124" s="22" t="s">
-        <v>2044</v>
-      </c>
-      <c r="M124" s="11" t="s">
-        <v>1638</v>
-      </c>
-      <c r="N124" s="11" t="s">
-        <v>1639</v>
-      </c>
-      <c r="O124" s="11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="P124" s="11" t="s">
-        <v>1640</v>
-      </c>
-      <c r="Q124" s="11" t="s">
-        <v>1641</v>
       </c>
       <c r="R124" s="11" t="s">
         <v>774</v>
       </c>
       <c r="S124" s="11" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
@@ -37114,22 +37113,22 @@
         <v>964</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="H125" s="11" t="s">
         <v>629</v>
       </c>
       <c r="I125" s="22" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="J125" s="11" t="s">
         <v>627</v>
       </c>
       <c r="K125" s="22" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="M125" s="11" t="s">
         <v>632</v>
@@ -37138,7 +37137,7 @@
         <v>825</v>
       </c>
       <c r="O125" s="11" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="P125" s="11" t="s">
         <v>634</v>
@@ -37150,7 +37149,7 @@
         <v>779</v>
       </c>
       <c r="S125" s="11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
@@ -37175,22 +37174,22 @@
         <v>966</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="I126" s="22" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="J126" s="11" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="K126" s="22" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>2026</v>
+        <v>2015</v>
       </c>
       <c r="M126" s="11" t="s">
         <v>826</v>
@@ -37199,19 +37198,19 @@
         <v>826</v>
       </c>
       <c r="O126" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="P126" s="11" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="Q126" s="11" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="R126" s="11" t="s">
         <v>780</v>
       </c>
       <c r="S126" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
@@ -37236,43 +37235,43 @@
         <v>968</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="I127" s="22" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="K127" s="22" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="L127" s="22" t="s">
-        <v>2027</v>
+        <v>2016</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="N127" s="14" t="s">
         <v>827</v>
       </c>
       <c r="O127" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="P127" s="11" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="Q127" s="11" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="R127" s="11" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="S127" s="11" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="T127" s="11"/>
       <c r="U127" s="11"/>
@@ -37297,22 +37296,22 @@
         <v>970</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="I128" s="22" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="J128" s="11" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="K128" s="22" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="L128" s="22" t="s">
-        <v>2028</v>
+        <v>2017</v>
       </c>
       <c r="M128" s="11" t="s">
         <v>585</v>
@@ -37327,13 +37326,13 @@
         <v>591</v>
       </c>
       <c r="Q128" s="11" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="R128" s="11" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="S128" s="11" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="T128" s="11"/>
       <c r="U128" s="11"/>
@@ -37358,22 +37357,22 @@
         <v>972</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="I129" s="22" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="J129" s="11" t="s">
         <v>456</v>
       </c>
       <c r="K129" s="22" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="L129" s="22" t="s">
-        <v>2029</v>
+        <v>2018</v>
       </c>
       <c r="M129" s="11" t="s">
         <v>274</v>
@@ -37391,10 +37390,10 @@
         <v>383</v>
       </c>
       <c r="R129" s="11" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="S129" s="11" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="T129" s="11"/>
       <c r="U129" s="11"/>
@@ -37419,22 +37418,22 @@
         <v>973</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="I130" s="22" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="J130" s="11" t="s">
         <v>457</v>
       </c>
       <c r="K130" s="22" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="M130" s="11" t="s">
         <v>275</v>
@@ -37452,10 +37451,10 @@
         <v>384</v>
       </c>
       <c r="R130" s="11" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="S130" s="11" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
@@ -37480,22 +37479,22 @@
         <v>975</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="I131" s="22" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="J131" s="11" t="s">
         <v>458</v>
       </c>
       <c r="K131" s="22" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="M131" s="11" t="s">
         <v>276</v>
@@ -37513,10 +37512,10 @@
         <v>385</v>
       </c>
       <c r="R131" s="11" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="S131" s="11" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="T131" s="11"/>
       <c r="U131" s="11"/>
@@ -37541,43 +37540,43 @@
         <v>977</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="I132" s="22" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="J132" s="14" t="s">
         <v>459</v>
       </c>
       <c r="K132" s="22" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="L132" s="22" t="s">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="N132" s="14" t="s">
         <v>829</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="P132" s="11" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="Q132" s="11" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="R132" s="11" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="S132" s="11" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="T132" s="11"/>
       <c r="U132" s="11"/>
@@ -37602,22 +37601,22 @@
         <v>979</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="I133" s="22" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="J133" s="11" t="s">
         <v>460</v>
       </c>
       <c r="K133" s="22" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>2033</v>
+        <v>2021</v>
       </c>
       <c r="M133" s="11" t="s">
         <v>421</v>
@@ -37626,7 +37625,7 @@
         <v>733</v>
       </c>
       <c r="O133" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="P133" s="11" t="s">
         <v>315</v>
@@ -37635,10 +37634,10 @@
         <v>386</v>
       </c>
       <c r="R133" s="11" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="S133" s="11" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="T133" s="11"/>
       <c r="U133" s="11"/>
@@ -37651,7 +37650,7 @@
         <v>636</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>810</v>
@@ -37663,19 +37662,19 @@
         <v>981</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="I134" s="22" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="K134" s="22" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="L134" s="22" t="s">
         <v>2034</v>
@@ -37699,7 +37698,7 @@
         <v>781</v>
       </c>
       <c r="S134" s="11" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="T134" s="11"/>
       <c r="U134" s="11"/>
@@ -37718,7 +37717,7 @@
         <v>645</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>982</v>
@@ -37736,10 +37735,10 @@
         <v>657</v>
       </c>
       <c r="K135" s="22" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>2035</v>
+        <v>2022</v>
       </c>
       <c r="M135" s="11" t="s">
         <v>734</v>
@@ -37788,16 +37787,16 @@
         <v>650</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="I136" s="22" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="J136" s="11" t="s">
         <v>658</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="L136" s="22" t="s">
         <v>678</v>
@@ -37809,7 +37808,7 @@
         <v>661</v>
       </c>
       <c r="O136" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="P136" s="11" t="s">
         <v>666</v>
@@ -37849,19 +37848,19 @@
         <v>651</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="I137" s="22" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J137" s="11" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="K137" s="22" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="L137" s="22" t="s">
-        <v>2036</v>
+        <v>2023</v>
       </c>
       <c r="M137" s="11" t="s">
         <v>662</v>
@@ -37919,10 +37918,10 @@
         <v>659</v>
       </c>
       <c r="K138" s="22" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="L138" s="22" t="s">
-        <v>2037</v>
+        <v>2024</v>
       </c>
       <c r="M138" s="11" t="s">
         <v>663</v>
@@ -37937,7 +37936,7 @@
         <v>668</v>
       </c>
       <c r="Q138" s="11" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="R138" s="11" t="s">
         <v>673</v>
@@ -37968,22 +37967,22 @@
         <v>992</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I139" s="12" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J139" s="12" t="s">
         <v>1149</v>
       </c>
-      <c r="J139" s="12" t="s">
-        <v>1151</v>
-      </c>
       <c r="K139" s="12" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="L139" s="12" t="s">
-        <v>2046</v>
+        <v>2031</v>
       </c>
       <c r="M139" s="12" t="s">
         <v>885</v>
@@ -37998,13 +37997,13 @@
         <v>1015</v>
       </c>
       <c r="Q139" s="12" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="R139" s="12" t="s">
         <v>887</v>
       </c>
       <c r="S139" s="12" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="T139" s="11"/>
       <c r="U139" s="11"/>
@@ -38041,10 +38040,10 @@
         <v>685</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="L140" s="12" t="s">
-        <v>2038</v>
+        <v>2025</v>
       </c>
       <c r="M140" s="12" t="s">
         <v>686</v>
@@ -38090,7 +38089,7 @@
         <v>989</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="H141" s="11" t="s">
         <v>334</v>
@@ -38102,7 +38101,7 @@
         <v>584</v>
       </c>
       <c r="K141" s="23" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="L141" s="12" t="s">
         <v>607</v>
@@ -38154,19 +38153,19 @@
         <v>486</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I142" s="22" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="J142" s="11" t="s">
         <v>461</v>
       </c>
       <c r="K142" s="22" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="L142" s="22" t="s">
-        <v>2039</v>
+        <v>2026</v>
       </c>
       <c r="M142" s="11" t="s">
         <v>335</v>
@@ -38187,7 +38186,7 @@
         <v>786</v>
       </c>
       <c r="S142" s="11" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
@@ -38201,7 +38200,7 @@
         <v>Maiduguri - Summary</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
@@ -38211,7 +38210,7 @@
       <c r="I143" s="22"/>
       <c r="J143" s="11"/>
       <c r="K143" s="22" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="L143" s="22"/>
       <c r="M143" s="11"/>
@@ -38235,7 +38234,7 @@
         <v>Mexico City - Summary</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -38247,7 +38246,7 @@
       <c r="K144" s="22"/>
       <c r="L144" s="22"/>
       <c r="M144" s="11" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
@@ -38269,7 +38268,7 @@
         <v>Baltimore - Summary</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
@@ -38301,7 +38300,7 @@
         <v>Phoenix - Summary</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
@@ -38333,7 +38332,7 @@
         <v>Seattle - Summary</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
@@ -38365,7 +38364,7 @@
         <v>Sao Paulo - Summary</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
@@ -38379,7 +38378,7 @@
       <c r="M148" s="11"/>
       <c r="N148" s="11"/>
       <c r="O148" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="P148" s="11" t="s">
         <v>1006</v>
@@ -38399,14 +38398,14 @@
         <v>Hong Kong - Summary</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="G149" s="12"/>
       <c r="H149" s="11"/>
@@ -38435,7 +38434,7 @@
         <v>Chennai - Summary</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
@@ -38453,7 +38452,7 @@
         <v>1006</v>
       </c>
       <c r="Q150" s="11" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="R150" s="11"/>
       <c r="S150" s="11"/>
@@ -38469,7 +38468,7 @@
         <v>Bangkok - Summary</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11"/>
@@ -38488,7 +38487,7 @@
       </c>
       <c r="Q151" s="11"/>
       <c r="R151" s="11" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="S151" s="11"/>
       <c r="T151" s="11"/>
@@ -38503,7 +38502,7 @@
         <v>Hanoi - Summary</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
@@ -38523,7 +38522,7 @@
       <c r="Q152" s="11"/>
       <c r="R152" s="11"/>
       <c r="S152" s="11" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
@@ -38537,7 +38536,7 @@
         <v>Graz - Summary</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
@@ -38546,7 +38545,7 @@
       <c r="H153" s="11"/>
       <c r="I153" s="22"/>
       <c r="J153" s="11" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="K153" s="22"/>
       <c r="L153" s="22"/>
@@ -38571,7 +38570,7 @@
         <v>Ghent - Summary</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
@@ -38579,7 +38578,7 @@
       <c r="G154" s="12"/>
       <c r="H154" s="11"/>
       <c r="I154" s="22" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="J154" s="11"/>
       <c r="K154" s="22"/>
@@ -38605,7 +38604,7 @@
         <v>Bern - Summary</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
@@ -38614,7 +38613,7 @@
       <c r="H155" s="11"/>
       <c r="I155" s="22"/>
       <c r="J155" s="11" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="K155" s="22"/>
       <c r="L155" s="22"/>
@@ -38639,13 +38638,13 @@
         <v>Olomouc - Summary</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="12" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="H156" s="11"/>
       <c r="I156" s="22"/>
@@ -38673,7 +38672,7 @@
         <v>Cologne - Summary</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
@@ -38682,7 +38681,7 @@
       <c r="H157" s="11"/>
       <c r="I157" s="22"/>
       <c r="J157" s="11" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="K157" s="22"/>
       <c r="L157" s="22"/>
@@ -38707,14 +38706,14 @@
         <v>Odense - Summary</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="12"/>
       <c r="H158" s="11" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="I158" s="22"/>
       <c r="J158" s="11"/>
@@ -38741,10 +38740,10 @@
         <v>Barcelona - Summary</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
@@ -38777,10 +38776,10 @@
         <v>Valencia - Summary</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
@@ -38813,10 +38812,10 @@
         <v>Vic - Summary</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
@@ -38849,7 +38848,7 @@
         <v>Belfast - Summary</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
@@ -38881,7 +38880,7 @@
         <v>Lisbon - Summary</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
@@ -38896,7 +38895,7 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
       <c r="P163" s="11" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="Q163" s="11"/>
       <c r="R163" s="11"/>
@@ -38913,7 +38912,7 @@
         <v>Adelaide - Summary</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
@@ -38945,7 +38944,7 @@
         <v>Melbourne - Summary</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
@@ -38977,7 +38976,7 @@
         <v>Sydney - Summary</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
@@ -39009,7 +39008,7 @@
         <v>Auckland - Summary</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
@@ -39019,7 +39018,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="22"/>
       <c r="L167" s="22" t="s">
-        <v>2040</v>
+        <v>2027</v>
       </c>
       <c r="M167" s="11"/>
       <c r="N167" s="11"/>
@@ -39041,52 +39040,52 @@
         <v>845</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1028</v>
+        <v>1902</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>889</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="L168" s="55" t="s">
-        <v>2042</v>
+        <v>2029</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>793</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="Q168" s="2" t="s">
         <v>794</v>
       </c>
       <c r="R168" s="2" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="S168" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="169" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -39094,13 +39093,13 @@
         <v>146</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="H169" s="3"/>
     </row>
@@ -39115,7 +39114,7 @@
         <v>836</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>844</v>
@@ -39127,7 +39126,7 @@
         <v>842</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>841</v>
@@ -39136,16 +39135,16 @@
         <v>840</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>2041</v>
+        <v>2028</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="O170" s="3" t="s">
         <v>839</v>
@@ -39160,7 +39159,7 @@
         <v>837</v>
       </c>
       <c r="S170" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
@@ -39168,58 +39167,58 @@
         <v>146</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="E171" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J171" s="3" t="s">
         <v>1522</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="K171" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M171" s="3" t="s">
         <v>1523</v>
       </c>
-      <c r="G171" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="H171" s="3" t="s">
+      <c r="N171" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="P171" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Q171" s="3" t="s">
         <v>1524</v>
       </c>
-      <c r="I171" s="3" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="R171" s="3" t="s">
         <v>1525</v>
       </c>
-      <c r="L171" s="3" t="s">
+      <c r="S171" s="3" t="s">
         <v>1526</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="N171" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="O171" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P171" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="Q171" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="R171" s="3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="S171" s="3" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -39236,16 +39235,16 @@
         <v>1019</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>1020</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>1021</v>
@@ -39254,31 +39253,31 @@
         <v>1022</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="L172" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="M172" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="M172" s="3" t="s">
+      <c r="N172" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O172" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="N172" s="3" t="s">
+      <c r="P172" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="O172" s="3" t="s">
+      <c r="Q172" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="P172" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="Q172" s="3" t="s">
+      <c r="R172" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="R172" s="3" t="s">
-        <v>1027</v>
-      </c>
       <c r="S172" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
@@ -39395,11 +39394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAA5C4-0A70-4221-8832-C196189F112B}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39419,37 +39418,37 @@
         <v>737</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>1073</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>1075</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="18" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>1006</v>
@@ -39464,10 +39463,10 @@
         <v>1006</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39475,28 +39474,28 @@
         <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39504,28 +39503,28 @@
         <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -39533,28 +39532,28 @@
         <v>187</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -39562,28 +39561,28 @@
         <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39591,28 +39590,28 @@
         <v>189</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39620,28 +39619,28 @@
         <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -39649,28 +39648,28 @@
         <v>191</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39678,28 +39677,28 @@
         <v>192</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>791</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39707,28 +39706,28 @@
         <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>787</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39736,28 +39735,28 @@
         <v>193</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -39765,28 +39764,28 @@
         <v>194</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39794,28 +39793,28 @@
         <v>195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>789</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -39823,28 +39822,28 @@
         <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39852,28 +39851,28 @@
         <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -39881,28 +39880,28 @@
         <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -39910,28 +39909,28 @@
         <v>199</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -39939,28 +39938,28 @@
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>1080</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>1082</v>
-      </c>
       <c r="G19" s="20" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -39968,28 +39967,28 @@
         <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1017</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -39997,28 +39996,28 @@
         <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -40026,28 +40025,28 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>790</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>1083</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>1085</v>
-      </c>
       <c r="G22" s="20" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -40055,28 +40054,28 @@
         <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -40084,28 +40083,28 @@
         <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -40113,28 +40112,28 @@
         <v>178</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -40142,28 +40141,28 @@
         <v>206</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -40171,28 +40170,28 @@
         <v>207</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>788</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1443</v>
+        <v>2045</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>1443</v>
+        <v>2044</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>2045</v>
+        <v>2036</v>
       </c>
     </row>
   </sheetData>
@@ -40253,7 +40252,7 @@
         <v>570</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -40273,7 +40272,7 @@
         <v>141</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -40293,7 +40292,7 @@
         <v>142</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -40313,7 +40312,7 @@
         <v>143</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -40330,7 +40329,7 @@
         <v>1000</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -40350,7 +40349,7 @@
         <v>1000</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -40370,7 +40369,7 @@
         <v>1000</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -40390,7 +40389,7 @@
         <v>1000</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -40478,13 +40477,13 @@
         <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="E14" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="F14" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -40495,16 +40494,16 @@
         <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="F15" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -40515,16 +40514,16 @@
         <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="F16" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -40535,16 +40534,16 @@
         <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="D17" t="s">
         <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="F17" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -40555,13 +40554,13 @@
         <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="E18" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F18" t="s">
         <v>1622</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -40572,16 +40571,16 @@
         <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="F19" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -40592,16 +40591,16 @@
         <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="F20" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -40612,16 +40611,16 @@
         <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="D21" t="s">
         <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="F21" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -40713,7 +40712,7 @@
         <v>222</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L3" s="26" t="s">
         <v>221</v>
@@ -42310,11 +42309,11 @@
       </c>
       <c r="B28" s="35" t="str">
         <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A28,city_details!A:A,0))</f>
-        <v>Auckland park</v>
+        <v>People's motion on subway platform in Auckland Britomart Transport Center, New Zealand</v>
       </c>
       <c r="C28" s="35" t="str">
         <f>INDEX(city_details!F:F,MATCH('City tasks for scorecards'!A28,city_details!A:A,0))</f>
-        <v>Auckland park</v>
+        <v>Cityscape image of Auckland skyline, New Zealand taken from Mt. Eden at sunset.</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>745</v>

--- a/_report_configuration.xlsx
+++ b/_report_configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/analysis/global_scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3300" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB0B94F3-D646-4FB0-AAFF-4A65B172B11E}"/>
+  <xr:revisionPtr revIDLastSave="3310" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E26DB0EA-320A-4598-A638-F4E8C8AEAEFE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_web" sheetId="1" r:id="rId1"/>
@@ -6307,7 +6307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7261,7 +7261,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill>
@@ -7558,6 +7558,23 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7880,13 +7897,13 @@
       <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.1796875" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7948,7 +7965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -8004,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8064,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -8124,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8184,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>340</v>
       </c>
@@ -8242,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>341</v>
       </c>
@@ -8299,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -8357,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -8410,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -8467,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>1500</v>
       </c>
@@ -8525,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -8581,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -8639,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -8696,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>832</v>
       </c>
@@ -8752,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>834</v>
       </c>
@@ -8809,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>1503</v>
       </c>
@@ -8866,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>1504</v>
       </c>
@@ -8925,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>833</v>
       </c>
@@ -8982,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>835</v>
       </c>
@@ -9039,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>888</v>
       </c>
@@ -9096,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>845</v>
       </c>
@@ -9153,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>1527</v>
       </c>
@@ -9210,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>847</v>
       </c>
@@ -9263,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -9319,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>1893</v>
       </c>
@@ -9382,7 +9399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>251</v>
       </c>
@@ -9442,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -9502,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -9559,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -9615,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -9674,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -9731,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -9791,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>212</v>
       </c>
@@ -9850,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -9907,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>867</v>
       </c>
@@ -9965,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>868</v>
       </c>
@@ -10024,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -10084,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -10141,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -10201,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="2" t="s">
         <v>214</v>
       </c>
@@ -10263,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="2" t="s">
         <v>213</v>
       </c>
@@ -10325,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -10382,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -10438,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>849</v>
       </c>
@@ -10501,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>851</v>
       </c>
@@ -10561,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>850</v>
       </c>
@@ -10624,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A47,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text1_middle</v>
@@ -10686,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A48,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text1_upper</v>
@@ -10748,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>852</v>
       </c>
@@ -10811,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>854</v>
       </c>
@@ -10871,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>853</v>
       </c>
@@ -10934,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A52,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text2_middle</v>
@@ -10996,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A53,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text2_upper</v>
@@ -11058,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>855</v>
       </c>
@@ -11121,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>857</v>
       </c>
@@ -11181,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>856</v>
       </c>
@@ -11244,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A57,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text3_middle</v>
@@ -11306,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A58,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text3_upper</v>
@@ -11368,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>858</v>
       </c>
@@ -11431,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>860</v>
       </c>
@@ -11491,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>859</v>
       </c>
@@ -11554,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A62,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text4_middle</v>
@@ -11616,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A63,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text4_upper</v>
@@ -11678,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>861</v>
       </c>
@@ -11741,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>863</v>
       </c>
@@ -11801,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>862</v>
       </c>
@@ -11864,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A67,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text5_middle</v>
@@ -11926,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A68,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text5_upper</v>
@@ -11988,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>864</v>
       </c>
@@ -12051,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>866</v>
       </c>
@@ -12111,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>865</v>
       </c>
@@ -12174,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A72,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text6_middle</v>
@@ -12236,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A73,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text6_upper</v>
@@ -12298,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -12355,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -12415,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -12471,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>576</v>
       </c>
@@ -12531,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>869</v>
       </c>
@@ -12588,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>870</v>
       </c>
@@ -12648,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>871</v>
       </c>
@@ -12708,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>872</v>
       </c>
@@ -12768,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>873</v>
       </c>
@@ -12828,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>874</v>
       </c>
@@ -12888,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -12945,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -13002,7 +13019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -13059,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -13116,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -13176,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -13236,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -13296,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -13356,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -13416,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -13476,7 +13493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -13536,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -13596,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -13656,7 +13673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -13716,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -13776,7 +13793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -13836,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -13896,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -13956,7 +13973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -14016,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -14076,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -14136,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -14196,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -14256,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -14316,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -14376,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -14436,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -14496,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -14556,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -14616,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -14676,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -14736,7 +14753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -14796,7 +14813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -14856,7 +14873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -14916,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -14976,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -15036,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -15096,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>101</v>
       </c>
@@ -15156,7 +15173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -15216,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -15273,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -15328,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>573</v>
       </c>
@@ -15388,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -15445,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -15501,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>574</v>
       </c>
@@ -15561,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="2" t="s">
         <v>232</v>
       </c>
@@ -15621,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="2" t="s">
         <v>575</v>
       </c>
@@ -15678,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -15732,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>185</v>
       </c>
@@ -15789,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>1501</v>
       </c>
@@ -15846,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -15902,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -15961,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -16017,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>882</v>
       </c>
@@ -16076,7 +16093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>875</v>
       </c>
@@ -16136,7 +16153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>871</v>
       </c>
@@ -16196,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>872</v>
       </c>
@@ -16256,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>873</v>
       </c>
@@ -16316,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>874</v>
       </c>
@@ -16376,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -16433,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -16490,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -16547,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -16604,7 +16621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -16664,7 +16681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -16724,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -16784,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -16844,7 +16861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -16904,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -16964,7 +16981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -17024,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -17084,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>111</v>
       </c>
@@ -17144,7 +17161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -17204,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -17264,7 +17281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -17324,7 +17341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -17384,7 +17401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -17444,7 +17461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -17504,7 +17521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>118</v>
       </c>
@@ -17564,7 +17581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -17624,7 +17641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -17684,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -17744,7 +17761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>122</v>
       </c>
@@ -17804,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -17862,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -17921,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -17977,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>881</v>
       </c>
@@ -18035,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>876</v>
       </c>
@@ -18095,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>871</v>
       </c>
@@ -18155,7 +18172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>872</v>
       </c>
@@ -18215,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>873</v>
       </c>
@@ -18275,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>874</v>
       </c>
@@ -18335,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -18392,7 +18409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -18449,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -18506,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>64</v>
       </c>
@@ -18563,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -18623,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -18683,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -18743,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -18803,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>130</v>
       </c>
@@ -18863,7 +18880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -18920,7 +18937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>253</v>
       </c>
@@ -18978,7 +18995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>179</v>
       </c>
@@ -19038,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -19092,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>680</v>
       </c>
@@ -19152,7 +19169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>1737</v>
       </c>
@@ -19212,7 +19229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>239</v>
       </c>
@@ -19270,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="18" customHeight="1">
       <c r="A193" t="s">
         <v>233</v>
       </c>
@@ -19331,7 +19348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>847</v>
       </c>
@@ -19408,13 +19425,13 @@
       <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.1796875" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19476,7 +19493,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -19532,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -19592,7 +19609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -19652,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -19712,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>340</v>
       </c>
@@ -19770,7 +19787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>341</v>
       </c>
@@ -19827,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -19885,7 +19902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -19938,7 +19955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -19995,7 +20012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>1500</v>
       </c>
@@ -20053,7 +20070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -20109,7 +20126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -20167,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -20224,7 +20241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>832</v>
       </c>
@@ -20280,7 +20297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>834</v>
       </c>
@@ -20337,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>1503</v>
       </c>
@@ -20394,7 +20411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>1504</v>
       </c>
@@ -20453,7 +20470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>833</v>
       </c>
@@ -20510,7 +20527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>835</v>
       </c>
@@ -20567,7 +20584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>888</v>
       </c>
@@ -20624,7 +20641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>845</v>
       </c>
@@ -20681,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>1527</v>
       </c>
@@ -20738,7 +20755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>847</v>
       </c>
@@ -20791,7 +20808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -20848,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>1893</v>
       </c>
@@ -20907,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>251</v>
       </c>
@@ -20965,7 +20982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -21026,7 +21043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -21083,7 +21100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -21140,7 +21157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -21198,7 +21215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -21254,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -21314,7 +21331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>212</v>
       </c>
@@ -21373,7 +21390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -21430,7 +21447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>867</v>
       </c>
@@ -21488,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>868</v>
       </c>
@@ -21548,7 +21565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -21608,7 +21625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -21665,7 +21682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -21725,7 +21742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="2" t="s">
         <v>214</v>
       </c>
@@ -21787,7 +21804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="2" t="s">
         <v>213</v>
       </c>
@@ -21849,7 +21866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -21906,7 +21923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -21962,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>849</v>
       </c>
@@ -22025,7 +22042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>851</v>
       </c>
@@ -22085,7 +22102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>850</v>
       </c>
@@ -22148,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A47,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text1_middle</v>
@@ -22210,7 +22227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A48,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text1_upper</v>
@@ -22272,7 +22289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>852</v>
       </c>
@@ -22335,7 +22352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>854</v>
       </c>
@@ -22395,7 +22412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>853</v>
       </c>
@@ -22458,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A52,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text2_middle</v>
@@ -22520,7 +22537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A53,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text2_upper</v>
@@ -22582,7 +22599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>855</v>
       </c>
@@ -22645,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>857</v>
       </c>
@@ -22705,7 +22722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>856</v>
       </c>
@@ -22768,7 +22785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A57,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text3_middle</v>
@@ -22830,7 +22847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A58,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text3_upper</v>
@@ -22892,7 +22909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>858</v>
       </c>
@@ -22955,7 +22972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>860</v>
       </c>
@@ -23015,7 +23032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>859</v>
       </c>
@@ -23078,7 +23095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A62,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text4_middle</v>
@@ -23140,7 +23157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A63,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text4_upper</v>
@@ -23202,7 +23219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>861</v>
       </c>
@@ -23265,7 +23282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>863</v>
       </c>
@@ -23325,7 +23342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>862</v>
       </c>
@@ -23388,7 +23405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A67,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text5_middle</v>
@@ -23450,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A68,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text5_upper</v>
@@ -23512,7 +23529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>864</v>
       </c>
@@ -23575,7 +23592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>866</v>
       </c>
@@ -23635,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>865</v>
       </c>
@@ -23698,7 +23715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A72,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text6_middle</v>
@@ -23760,7 +23777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A73,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text6_upper</v>
@@ -23822,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -23879,7 +23896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -23939,7 +23956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -23994,7 +24011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>576</v>
       </c>
@@ -24054,7 +24071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>869</v>
       </c>
@@ -24112,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>870</v>
       </c>
@@ -24172,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>871</v>
       </c>
@@ -24232,7 +24249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>872</v>
       </c>
@@ -24292,7 +24309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>873</v>
       </c>
@@ -24352,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>874</v>
       </c>
@@ -24412,7 +24429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -24469,7 +24486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -24526,7 +24543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -24583,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -24640,7 +24657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -24700,7 +24717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -24760,7 +24777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -24820,7 +24837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -24880,7 +24897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -24940,7 +24957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -25000,7 +25017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -25060,7 +25077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -25120,7 +25137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -25180,7 +25197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -25240,7 +25257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -25300,7 +25317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -25360,7 +25377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -25420,7 +25437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -25480,7 +25497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -25540,7 +25557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -25600,7 +25617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -25660,7 +25677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -25720,7 +25737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -25780,7 +25797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -25840,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -25900,7 +25917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -25960,7 +25977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -26020,7 +26037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -26080,7 +26097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -26140,7 +26157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -26200,7 +26217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -26260,7 +26277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -26320,7 +26337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -26380,7 +26397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -26440,7 +26457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -26500,7 +26517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -26560,7 +26577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -26620,7 +26637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>101</v>
       </c>
@@ -26680,7 +26697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -26740,7 +26757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -26797,7 +26814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -26852,7 +26869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>573</v>
       </c>
@@ -26912,7 +26929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -26969,7 +26986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -27025,7 +27042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>574</v>
       </c>
@@ -27085,7 +27102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="2" t="s">
         <v>232</v>
       </c>
@@ -27145,7 +27162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="2" t="s">
         <v>575</v>
       </c>
@@ -27202,7 +27219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -27256,7 +27273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>185</v>
       </c>
@@ -27313,7 +27330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>1501</v>
       </c>
@@ -27370,7 +27387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -27426,7 +27443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -27485,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -27541,7 +27558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>882</v>
       </c>
@@ -27600,7 +27617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>875</v>
       </c>
@@ -27660,7 +27677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>871</v>
       </c>
@@ -27720,7 +27737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>872</v>
       </c>
@@ -27780,7 +27797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>873</v>
       </c>
@@ -27840,7 +27857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>874</v>
       </c>
@@ -27900,7 +27917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -27957,7 +27974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -28014,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -28071,7 +28088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -28128,7 +28145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -28188,7 +28205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -28248,7 +28265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -28308,7 +28325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -28368,7 +28385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -28428,7 +28445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -28488,7 +28505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -28548,7 +28565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -28608,7 +28625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>111</v>
       </c>
@@ -28668,7 +28685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -28728,7 +28745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -28788,7 +28805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -28848,7 +28865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -28908,7 +28925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -28968,7 +28985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -29028,7 +29045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>118</v>
       </c>
@@ -29088,7 +29105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -29148,7 +29165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -29208,7 +29225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -29268,7 +29285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>122</v>
       </c>
@@ -29328,7 +29345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -29386,7 +29403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -29445,7 +29462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -29501,7 +29518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>881</v>
       </c>
@@ -29559,7 +29576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>876</v>
       </c>
@@ -29619,7 +29636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>871</v>
       </c>
@@ -29679,7 +29696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>872</v>
       </c>
@@ -29739,7 +29756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>873</v>
       </c>
@@ -29799,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>874</v>
       </c>
@@ -29859,7 +29876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -29916,7 +29933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -29973,7 +29990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -30030,7 +30047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>64</v>
       </c>
@@ -30087,7 +30104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -30147,7 +30164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -30207,7 +30224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -30267,7 +30284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -30327,7 +30344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>130</v>
       </c>
@@ -30387,7 +30404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -30444,7 +30461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>253</v>
       </c>
@@ -30502,7 +30519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>179</v>
       </c>
@@ -30562,7 +30579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -30616,7 +30633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>680</v>
       </c>
@@ -30676,7 +30693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>1737</v>
       </c>
@@ -30736,7 +30753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>239</v>
       </c>
@@ -30794,7 +30811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="58">
       <c r="A193" t="s">
         <v>233</v>
       </c>
@@ -30855,7 +30872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>847</v>
       </c>
@@ -30925,31 +30942,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K164" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C164" sqref="C164"/>
+      <selection pane="bottomRight" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="19" customWidth="1"/>
     <col min="2" max="2" width="38" style="19" customWidth="1"/>
-    <col min="3" max="4" width="52.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="65.5703125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="52.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="65.54296875" style="3" customWidth="1"/>
     <col min="6" max="6" width="70" style="3" customWidth="1"/>
-    <col min="7" max="9" width="52.85546875" style="3" customWidth="1"/>
+    <col min="7" max="9" width="52.81640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="72" style="3" customWidth="1"/>
-    <col min="11" max="16" width="52.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="96.42578125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="65.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16" width="52.81640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="96.453125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="65.7265625" style="3" customWidth="1"/>
     <col min="19" max="19" width="56" style="3" customWidth="1"/>
-    <col min="20" max="21" width="52.85546875" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="3"/>
+    <col min="20" max="21" width="52.81640625" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="18" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>145</v>
       </c>
@@ -31010,7 +31027,7 @@
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
     </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="20" customFormat="1">
       <c r="A2" s="19" t="s">
         <v>146</v>
       </c>
@@ -31071,7 +31088,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="20" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>146</v>
       </c>
@@ -31132,7 +31149,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="20" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>146</v>
       </c>
@@ -31193,7 +31210,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>146</v>
       </c>
@@ -31254,7 +31271,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>146</v>
       </c>
@@ -31315,7 +31332,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="30" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>146</v>
       </c>
@@ -31376,7 +31393,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>146</v>
       </c>
@@ -31409,7 +31426,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>146</v>
       </c>
@@ -31442,7 +31459,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>146</v>
       </c>
@@ -31473,7 +31490,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>146</v>
       </c>
@@ -31504,7 +31521,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>146</v>
       </c>
@@ -31535,7 +31552,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>146</v>
       </c>
@@ -31568,7 +31585,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>146</v>
       </c>
@@ -31603,7 +31620,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>146</v>
       </c>
@@ -31636,7 +31653,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>146</v>
       </c>
@@ -31669,7 +31686,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>146</v>
       </c>
@@ -31702,7 +31719,7 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>146</v>
       </c>
@@ -31735,7 +31752,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>146</v>
       </c>
@@ -31768,7 +31785,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>146</v>
       </c>
@@ -31801,7 +31818,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>146</v>
       </c>
@@ -31834,7 +31851,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>146</v>
       </c>
@@ -31867,7 +31884,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>146</v>
       </c>
@@ -31900,7 +31917,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>146</v>
       </c>
@@ -31935,7 +31952,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>146</v>
       </c>
@@ -31970,7 +31987,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>146</v>
       </c>
@@ -32005,7 +32022,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="19" t="s">
         <v>146</v>
       </c>
@@ -32036,7 +32053,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>146</v>
       </c>
@@ -32067,7 +32084,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>146</v>
       </c>
@@ -32098,7 +32115,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>146</v>
       </c>
@@ -32129,7 +32146,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="19" t="s">
         <v>146</v>
       </c>
@@ -32160,7 +32177,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" customHeight="1">
       <c r="A32" s="19" t="s">
         <v>146</v>
       </c>
@@ -32193,7 +32210,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" customHeight="1">
       <c r="A33" s="19" t="s">
         <v>146</v>
       </c>
@@ -32226,7 +32243,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" customHeight="1">
       <c r="A34" s="19" t="s">
         <v>146</v>
       </c>
@@ -32259,7 +32276,7 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" customHeight="1">
       <c r="A35" s="19" t="s">
         <v>146</v>
       </c>
@@ -32290,7 +32307,7 @@
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" customHeight="1">
       <c r="A36" s="19" t="s">
         <v>146</v>
       </c>
@@ -32321,7 +32338,7 @@
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" customHeight="1">
       <c r="A37" s="19" t="s">
         <v>146</v>
       </c>
@@ -32352,7 +32369,7 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" customHeight="1">
       <c r="A38" s="19" t="s">
         <v>146</v>
       </c>
@@ -32385,7 +32402,7 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15" customHeight="1">
       <c r="A39" s="19" t="s">
         <v>146</v>
       </c>
@@ -32420,7 +32437,7 @@
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="A40" s="19" t="s">
         <v>146</v>
       </c>
@@ -32453,7 +32470,7 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" customHeight="1">
       <c r="A41" s="19" t="s">
         <v>146</v>
       </c>
@@ -32486,7 +32503,7 @@
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" customHeight="1">
       <c r="A42" s="19" t="s">
         <v>146</v>
       </c>
@@ -32519,7 +32536,7 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" customHeight="1">
       <c r="A43" s="19" t="s">
         <v>146</v>
       </c>
@@ -32552,7 +32569,7 @@
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" customHeight="1">
       <c r="A44" s="19" t="s">
         <v>146</v>
       </c>
@@ -32585,7 +32602,7 @@
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" customHeight="1">
       <c r="A45" s="19" t="s">
         <v>146</v>
       </c>
@@ -32618,7 +32635,7 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" customHeight="1">
       <c r="A46" s="19" t="s">
         <v>146</v>
       </c>
@@ -32651,7 +32668,7 @@
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" customHeight="1">
       <c r="A47" s="19" t="s">
         <v>146</v>
       </c>
@@ -32684,7 +32701,7 @@
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" customHeight="1">
       <c r="A48" s="19" t="s">
         <v>146</v>
       </c>
@@ -32717,7 +32734,7 @@
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15" customHeight="1">
       <c r="A49" s="19" t="s">
         <v>146</v>
       </c>
@@ -32752,7 +32769,7 @@
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15" customHeight="1">
       <c r="A50" s="19" t="s">
         <v>146</v>
       </c>
@@ -32787,7 +32804,7 @@
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" customHeight="1">
       <c r="A51" s="19" t="s">
         <v>146</v>
       </c>
@@ -32822,7 +32839,7 @@
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15" customHeight="1">
       <c r="A52" s="19" t="s">
         <v>146</v>
       </c>
@@ -32853,7 +32870,7 @@
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15" customHeight="1">
       <c r="A53" s="19" t="s">
         <v>146</v>
       </c>
@@ -32884,7 +32901,7 @@
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
     </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" customHeight="1">
       <c r="A54" s="19" t="s">
         <v>146</v>
       </c>
@@ -32915,7 +32932,7 @@
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15" customHeight="1">
       <c r="A55" s="19" t="s">
         <v>146</v>
       </c>
@@ -32946,7 +32963,7 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" customHeight="1">
       <c r="A56" s="19" t="s">
         <v>146</v>
       </c>
@@ -32977,7 +32994,7 @@
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" customHeight="1">
       <c r="A57" s="19" t="s">
         <v>146</v>
       </c>
@@ -33010,7 +33027,7 @@
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
     </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15" customHeight="1">
       <c r="A58" s="19" t="s">
         <v>146</v>
       </c>
@@ -33071,7 +33088,7 @@
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15" customHeight="1">
       <c r="A59" s="19" t="s">
         <v>147</v>
       </c>
@@ -33132,7 +33149,7 @@
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15" customHeight="1">
       <c r="A60" s="19" t="s">
         <v>147</v>
       </c>
@@ -33193,7 +33210,7 @@
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15" customHeight="1">
       <c r="A61" s="19" t="s">
         <v>147</v>
       </c>
@@ -33254,7 +33271,7 @@
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
     </row>
-    <row r="62" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" s="20" customFormat="1">
       <c r="A62" s="19" t="s">
         <v>147</v>
       </c>
@@ -33315,7 +33332,7 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
     </row>
-    <row r="63" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" s="20" customFormat="1">
       <c r="A63" s="19" t="s">
         <v>147</v>
       </c>
@@ -33376,7 +33393,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" s="20" customFormat="1">
       <c r="A64" s="19" t="s">
         <v>147</v>
       </c>
@@ -33437,7 +33454,7 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" s="20" customFormat="1">
       <c r="A65" s="19" t="s">
         <v>147</v>
       </c>
@@ -33498,7 +33515,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
     </row>
-    <row r="66" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" s="20" customFormat="1">
       <c r="A66" s="19" t="s">
         <v>147</v>
       </c>
@@ -33559,7 +33576,7 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
     </row>
-    <row r="67" spans="1:21" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" s="20" customFormat="1" ht="43.5">
       <c r="A67" s="19" t="s">
         <v>147</v>
       </c>
@@ -33620,7 +33637,7 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
     </row>
-    <row r="68" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" s="20" customFormat="1">
       <c r="A68" s="19" t="s">
         <v>147</v>
       </c>
@@ -33681,7 +33698,7 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
     </row>
-    <row r="69" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" s="20" customFormat="1" ht="29">
       <c r="A69" s="19" t="s">
         <v>147</v>
       </c>
@@ -33742,7 +33759,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
     </row>
-    <row r="70" spans="1:21" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" s="20" customFormat="1" ht="43.5">
       <c r="A70" s="19" t="s">
         <v>147</v>
       </c>
@@ -33803,7 +33820,7 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
     </row>
-    <row r="71" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" s="20" customFormat="1">
       <c r="A71" s="19" t="s">
         <v>147</v>
       </c>
@@ -33864,7 +33881,7 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
     </row>
-    <row r="72" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" s="20" customFormat="1">
       <c r="A72" s="19" t="s">
         <v>147</v>
       </c>
@@ -33925,7 +33942,7 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
     </row>
-    <row r="73" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" s="20" customFormat="1">
       <c r="A73" s="19" t="s">
         <v>147</v>
       </c>
@@ -33986,7 +34003,7 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
     </row>
-    <row r="74" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" s="20" customFormat="1" ht="29">
       <c r="A74" s="19" t="s">
         <v>147</v>
       </c>
@@ -34047,7 +34064,7 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
     </row>
-    <row r="75" spans="1:21" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" s="20" customFormat="1" ht="43.5" customHeight="1">
       <c r="A75" s="19" t="s">
         <v>147</v>
       </c>
@@ -34108,7 +34125,7 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
     </row>
-    <row r="76" spans="1:21" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" s="20" customFormat="1" ht="43.5" customHeight="1">
       <c r="A76" s="19" t="s">
         <v>147</v>
       </c>
@@ -34169,7 +34186,7 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
     </row>
-    <row r="77" spans="1:21" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" s="20" customFormat="1" ht="29">
       <c r="A77" s="19" t="s">
         <v>147</v>
       </c>
@@ -34230,7 +34247,7 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
     </row>
-    <row r="78" spans="1:21" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" s="20" customFormat="1" ht="43.5">
       <c r="A78" s="19" t="s">
         <v>147</v>
       </c>
@@ -34291,7 +34308,7 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
     </row>
-    <row r="79" spans="1:21" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" s="20" customFormat="1" ht="43.5">
       <c r="A79" s="19" t="s">
         <v>147</v>
       </c>
@@ -34352,7 +34369,7 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
     </row>
-    <row r="80" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" s="20" customFormat="1">
       <c r="A80" s="19" t="s">
         <v>147</v>
       </c>
@@ -34413,7 +34430,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
     </row>
-    <row r="81" spans="1:21" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" s="20" customFormat="1" ht="58">
       <c r="A81" s="19" t="s">
         <v>147</v>
       </c>
@@ -34474,7 +34491,7 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
     </row>
-    <row r="82" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" s="20" customFormat="1" ht="29">
       <c r="A82" s="19" t="s">
         <v>147</v>
       </c>
@@ -34535,7 +34552,7 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
     </row>
-    <row r="83" spans="1:21" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" s="20" customFormat="1" ht="29">
       <c r="A83" s="19" t="s">
         <v>147</v>
       </c>
@@ -34596,7 +34613,7 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
     </row>
-    <row r="84" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" s="20" customFormat="1">
       <c r="A84" s="19" t="s">
         <v>147</v>
       </c>
@@ -34657,7 +34674,7 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
     </row>
-    <row r="85" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="80.25" customHeight="1">
       <c r="A85" s="19" t="s">
         <v>146</v>
       </c>
@@ -34716,7 +34733,7 @@
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
     </row>
-    <row r="86" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="67.5" customHeight="1">
       <c r="A86" s="19" t="s">
         <v>146</v>
       </c>
@@ -34775,7 +34792,7 @@
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
     </row>
-    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21">
       <c r="A87" s="19" t="s">
         <v>146</v>
       </c>
@@ -34836,7 +34853,7 @@
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
     </row>
-    <row r="88" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="238.5" customHeight="1">
       <c r="A88" s="19" t="s">
         <v>146</v>
       </c>
@@ -34897,7 +34914,7 @@
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
     </row>
-    <row r="89" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="238.5" customHeight="1">
       <c r="A89" s="19" t="s">
         <v>146</v>
       </c>
@@ -34958,7 +34975,7 @@
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
     </row>
-    <row r="90" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="238.5" customHeight="1">
       <c r="A90" s="19" t="s">
         <v>146</v>
       </c>
@@ -35019,7 +35036,7 @@
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
     </row>
-    <row r="91" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="43.5">
       <c r="A91" s="19" t="s">
         <v>146</v>
       </c>
@@ -35080,7 +35097,7 @@
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21">
       <c r="A92" s="19" t="s">
         <v>146</v>
       </c>
@@ -35141,7 +35158,7 @@
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21">
       <c r="A93" s="19" t="s">
         <v>146</v>
       </c>
@@ -35202,7 +35219,7 @@
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
     </row>
-    <row r="94" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="29">
       <c r="A94" s="19" t="s">
         <v>146</v>
       </c>
@@ -35263,7 +35280,7 @@
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21">
       <c r="A95" s="19" t="s">
         <v>146</v>
       </c>
@@ -35324,7 +35341,7 @@
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
     </row>
-    <row r="96" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="43.5">
       <c r="A96" s="19" t="s">
         <v>146</v>
       </c>
@@ -35385,7 +35402,7 @@
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21">
       <c r="A97" s="19" t="s">
         <v>146</v>
       </c>
@@ -35446,7 +35463,7 @@
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
     </row>
-    <row r="98" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="43.5">
       <c r="A98" s="19" t="s">
         <v>146</v>
       </c>
@@ -35507,7 +35524,7 @@
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
     </row>
-    <row r="99" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="29">
       <c r="A99" s="19" t="s">
         <v>146</v>
       </c>
@@ -35568,7 +35585,7 @@
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
     </row>
-    <row r="100" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="29">
       <c r="A100" s="19" t="s">
         <v>146</v>
       </c>
@@ -35629,7 +35646,7 @@
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
     </row>
-    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="29">
       <c r="A101" s="19" t="s">
         <v>146</v>
       </c>
@@ -35690,7 +35707,7 @@
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
     </row>
-    <row r="102" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="29">
       <c r="A102" s="19" t="s">
         <v>146</v>
       </c>
@@ -35751,7 +35768,7 @@
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
     </row>
-    <row r="103" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="43.5">
       <c r="A103" s="19" t="s">
         <v>146</v>
       </c>
@@ -35812,7 +35829,7 @@
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
     </row>
-    <row r="104" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="29">
       <c r="A104" s="19" t="s">
         <v>146</v>
       </c>
@@ -35873,7 +35890,7 @@
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
     </row>
-    <row r="105" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="29">
       <c r="A105" s="19" t="s">
         <v>146</v>
       </c>
@@ -35934,7 +35951,7 @@
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
     </row>
-    <row r="106" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="29">
       <c r="A106" s="19" t="s">
         <v>146</v>
       </c>
@@ -35995,7 +36012,7 @@
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
     </row>
-    <row r="107" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="174">
       <c r="A107" s="19" t="s">
         <v>146</v>
       </c>
@@ -36056,7 +36073,7 @@
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
     </row>
-    <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="29">
       <c r="A108" s="19" t="s">
         <v>146</v>
       </c>
@@ -36117,7 +36134,7 @@
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
     </row>
-    <row r="109" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21">
       <c r="A109" s="19" t="s">
         <v>146</v>
       </c>
@@ -36178,7 +36195,7 @@
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
     </row>
-    <row r="110" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="29">
       <c r="A110" s="19" t="s">
         <v>146</v>
       </c>
@@ -36239,7 +36256,7 @@
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21">
       <c r="A111" s="19" t="s">
         <v>146</v>
       </c>
@@ -36300,7 +36317,7 @@
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
     </row>
-    <row r="112" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="43.5">
       <c r="A112" s="19" t="s">
         <v>146</v>
       </c>
@@ -36361,7 +36378,7 @@
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21">
       <c r="A113" s="19" t="s">
         <v>146</v>
       </c>
@@ -36422,7 +36439,7 @@
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
     </row>
-    <row r="114" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="43.5">
       <c r="A114" s="19" t="s">
         <v>146</v>
       </c>
@@ -36483,7 +36500,7 @@
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21">
       <c r="A115" s="19" t="s">
         <v>146</v>
       </c>
@@ -36544,7 +36561,7 @@
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21">
       <c r="A116" s="19" t="s">
         <v>146</v>
       </c>
@@ -36605,7 +36622,7 @@
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
     </row>
-    <row r="117" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="29">
       <c r="A117" s="19" t="s">
         <v>146</v>
       </c>
@@ -36666,7 +36683,7 @@
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21">
       <c r="A118" s="19" t="s">
         <v>146</v>
       </c>
@@ -36727,7 +36744,7 @@
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21">
       <c r="A119" s="19" t="s">
         <v>146</v>
       </c>
@@ -36788,7 +36805,7 @@
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21">
       <c r="A120" s="19" t="s">
         <v>146</v>
       </c>
@@ -36849,7 +36866,7 @@
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
     </row>
-    <row r="121" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21">
       <c r="A121" s="19" t="s">
         <v>146</v>
       </c>
@@ -36910,7 +36927,7 @@
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21">
       <c r="A122" s="19" t="s">
         <v>146</v>
       </c>
@@ -36971,7 +36988,7 @@
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21">
       <c r="A123" s="19" t="s">
         <v>146</v>
       </c>
@@ -37032,7 +37049,7 @@
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
     </row>
-    <row r="124" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="241.5" customHeight="1">
       <c r="A124" s="19" t="s">
         <v>146</v>
       </c>
@@ -37093,7 +37110,7 @@
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21">
       <c r="A125" s="19" t="s">
         <v>146</v>
       </c>
@@ -37154,7 +37171,7 @@
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21">
       <c r="A126" s="19" t="s">
         <v>146</v>
       </c>
@@ -37215,7 +37232,7 @@
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
     </row>
-    <row r="127" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="188.5">
       <c r="A127" s="19" t="s">
         <v>146</v>
       </c>
@@ -37276,7 +37293,7 @@
       <c r="T127" s="11"/>
       <c r="U127" s="11"/>
     </row>
-    <row r="128" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="29">
       <c r="A128" s="19" t="s">
         <v>146</v>
       </c>
@@ -37337,7 +37354,7 @@
       <c r="T128" s="11"/>
       <c r="U128" s="11"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21">
       <c r="A129" s="19" t="s">
         <v>146</v>
       </c>
@@ -37398,7 +37415,7 @@
       <c r="T129" s="11"/>
       <c r="U129" s="11"/>
     </row>
-    <row r="130" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="29">
       <c r="A130" s="19" t="s">
         <v>146</v>
       </c>
@@ -37459,7 +37476,7 @@
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21">
       <c r="A131" s="19" t="s">
         <v>146</v>
       </c>
@@ -37520,7 +37537,7 @@
       <c r="T131" s="11"/>
       <c r="U131" s="11"/>
     </row>
-    <row r="132" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="174">
       <c r="A132" s="19" t="s">
         <v>146</v>
       </c>
@@ -37581,7 +37598,7 @@
       <c r="T132" s="11"/>
       <c r="U132" s="11"/>
     </row>
-    <row r="133" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="29">
       <c r="A133" s="19" t="s">
         <v>146</v>
       </c>
@@ -37642,7 +37659,7 @@
       <c r="T133" s="11"/>
       <c r="U133" s="11"/>
     </row>
-    <row r="134" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="29">
       <c r="A134" s="19" t="s">
         <v>146</v>
       </c>
@@ -37703,7 +37720,7 @@
       <c r="T134" s="11"/>
       <c r="U134" s="11"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21">
       <c r="A135" s="19" t="s">
         <v>146</v>
       </c>
@@ -37764,7 +37781,7 @@
       <c r="T135" s="11"/>
       <c r="U135" s="11"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21">
       <c r="A136" s="19" t="s">
         <v>146</v>
       </c>
@@ -37825,7 +37842,7 @@
       <c r="T136" s="11"/>
       <c r="U136" s="11"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21">
       <c r="A137" s="19" t="s">
         <v>146</v>
       </c>
@@ -37886,7 +37903,7 @@
       <c r="T137" s="11"/>
       <c r="U137" s="11"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21">
       <c r="A138" s="19" t="s">
         <v>146</v>
       </c>
@@ -37947,7 +37964,7 @@
       <c r="T138" s="11"/>
       <c r="U138" s="11"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21">
       <c r="A139" s="19" t="s">
         <v>146</v>
       </c>
@@ -38008,7 +38025,7 @@
       <c r="T139" s="11"/>
       <c r="U139" s="11"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21">
       <c r="A140" s="19" t="s">
         <v>146</v>
       </c>
@@ -38069,7 +38086,7 @@
       <c r="T140" s="11"/>
       <c r="U140" s="11"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21">
       <c r="A141" s="19" t="s">
         <v>146</v>
       </c>
@@ -38130,7 +38147,7 @@
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
     </row>
-    <row r="142" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="29">
       <c r="A142" s="19" t="s">
         <v>146</v>
       </c>
@@ -38191,12 +38208,12 @@
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
     </row>
-    <row r="143" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="409.5">
       <c r="A143" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B143" s="21" t="str">
-        <f t="shared" ref="B143:B167" si="0">B8&amp;" - "&amp;"Summary"</f>
+        <f t="shared" ref="B143:B153" si="0">B8&amp;" - "&amp;"Summary"</f>
         <v>Maiduguri - Summary</v>
       </c>
       <c r="C143" s="12" t="s">
@@ -38225,7 +38242,7 @@
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
     </row>
-    <row r="144" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="409.5" customHeight="1">
       <c r="A144" s="19" t="s">
         <v>146</v>
       </c>
@@ -38259,7 +38276,7 @@
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
     </row>
-    <row r="145" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="409.5" customHeight="1">
       <c r="A145" s="19" t="s">
         <v>146</v>
       </c>
@@ -38291,7 +38308,7 @@
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
     </row>
-    <row r="146" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="409.5" customHeight="1">
       <c r="A146" s="19" t="s">
         <v>146</v>
       </c>
@@ -38323,7 +38340,7 @@
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
     </row>
-    <row r="147" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="409.5" customHeight="1">
       <c r="A147" s="19" t="s">
         <v>146</v>
       </c>
@@ -38355,7 +38372,7 @@
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
     </row>
-    <row r="148" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="409.5" customHeight="1">
       <c r="A148" s="19" t="s">
         <v>146</v>
       </c>
@@ -38389,7 +38406,7 @@
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
     </row>
-    <row r="149" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="409.5" customHeight="1">
       <c r="A149" s="19" t="s">
         <v>146</v>
       </c>
@@ -38425,7 +38442,7 @@
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
     </row>
-    <row r="150" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" ht="409.5" customHeight="1">
       <c r="A150" s="19" t="s">
         <v>146</v>
       </c>
@@ -38459,7 +38476,7 @@
       <c r="T150" s="11"/>
       <c r="U150" s="11"/>
     </row>
-    <row r="151" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="409.5" customHeight="1">
       <c r="A151" s="19" t="s">
         <v>146</v>
       </c>
@@ -38493,7 +38510,7 @@
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
     </row>
-    <row r="152" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="409.5" customHeight="1">
       <c r="A152" s="19" t="s">
         <v>146</v>
       </c>
@@ -38527,7 +38544,7 @@
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
     </row>
-    <row r="153" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" ht="409.5" customHeight="1">
       <c r="A153" s="19" t="s">
         <v>146</v>
       </c>
@@ -38561,12 +38578,12 @@
       <c r="T153" s="11"/>
       <c r="U153" s="11"/>
     </row>
-    <row r="154" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" ht="409.5" customHeight="1">
       <c r="A154" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B154" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B19&amp;" - "&amp;"Summary"</f>
         <v>Ghent - Summary</v>
       </c>
       <c r="C154" s="12" t="s">
@@ -38595,12 +38612,12 @@
       <c r="T154" s="11"/>
       <c r="U154" s="11"/>
     </row>
-    <row r="155" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" ht="409.5" customHeight="1">
       <c r="A155" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B155" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B20&amp;" - "&amp;"Summary"</f>
         <v>Bern - Summary</v>
       </c>
       <c r="C155" s="12" t="s">
@@ -38629,12 +38646,12 @@
       <c r="T155" s="11"/>
       <c r="U155" s="11"/>
     </row>
-    <row r="156" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" ht="409.5" customHeight="1">
       <c r="A156" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B156" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B21&amp;" - "&amp;"Summary"</f>
         <v>Olomouc - Summary</v>
       </c>
       <c r="C156" s="12" t="s">
@@ -38663,12 +38680,12 @@
       <c r="T156" s="11"/>
       <c r="U156" s="11"/>
     </row>
-    <row r="157" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" ht="409.5" customHeight="1">
       <c r="A157" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B157" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B22&amp;" - "&amp;"Summary"</f>
         <v>Cologne - Summary</v>
       </c>
       <c r="C157" s="12" t="s">
@@ -38697,12 +38714,12 @@
       <c r="T157" s="11"/>
       <c r="U157" s="11"/>
     </row>
-    <row r="158" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="409.5" customHeight="1">
       <c r="A158" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B158" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B23&amp;" - "&amp;"Summary"</f>
         <v>Odense - Summary</v>
       </c>
       <c r="C158" s="12" t="s">
@@ -38731,12 +38748,12 @@
       <c r="T158" s="11"/>
       <c r="U158" s="11"/>
     </row>
-    <row r="159" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="409.5" customHeight="1">
       <c r="A159" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B159" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B24&amp;" - "&amp;"Summary"</f>
         <v>Barcelona - Summary</v>
       </c>
       <c r="C159" s="12" t="s">
@@ -38767,12 +38784,12 @@
       <c r="T159" s="11"/>
       <c r="U159" s="11"/>
     </row>
-    <row r="160" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" ht="409.5" customHeight="1">
       <c r="A160" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B160" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B25&amp;" - "&amp;"Summary"</f>
         <v>Valencia - Summary</v>
       </c>
       <c r="C160" s="12" t="s">
@@ -38803,12 +38820,12 @@
       <c r="T160" s="11"/>
       <c r="U160" s="11"/>
     </row>
-    <row r="161" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="409.5" customHeight="1">
       <c r="A161" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B161" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B26&amp;" - "&amp;"Summary"</f>
         <v>Vic - Summary</v>
       </c>
       <c r="C161" s="12" t="s">
@@ -38839,12 +38856,12 @@
       <c r="T161" s="11"/>
       <c r="U161" s="11"/>
     </row>
-    <row r="162" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" ht="409.5" customHeight="1">
       <c r="A162" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B162" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B27&amp;" - "&amp;"Summary"</f>
         <v>Belfast - Summary</v>
       </c>
       <c r="C162" s="12" t="s">
@@ -38871,12 +38888,12 @@
       <c r="T162" s="11"/>
       <c r="U162" s="11"/>
     </row>
-    <row r="163" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="409.5" customHeight="1">
       <c r="A163" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B163" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B28&amp;" - "&amp;"Summary"</f>
         <v>Lisbon - Summary</v>
       </c>
       <c r="C163" s="12" t="s">
@@ -38903,12 +38920,12 @@
       <c r="T163" s="11"/>
       <c r="U163" s="11"/>
     </row>
-    <row r="164" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="409.5" customHeight="1">
       <c r="A164" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B164" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B29&amp;" - "&amp;"Summary"</f>
         <v>Adelaide - Summary</v>
       </c>
       <c r="C164" s="12" t="s">
@@ -38935,12 +38952,12 @@
       <c r="T164" s="11"/>
       <c r="U164" s="11"/>
     </row>
-    <row r="165" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="409.5" customHeight="1">
       <c r="A165" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B165" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B30&amp;" - "&amp;"Summary"</f>
         <v>Melbourne - Summary</v>
       </c>
       <c r="C165" s="12" t="s">
@@ -38967,12 +38984,12 @@
       <c r="T165" s="11"/>
       <c r="U165" s="11"/>
     </row>
-    <row r="166" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" ht="409.5" customHeight="1">
       <c r="A166" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B166" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B31&amp;" - "&amp;"Summary"</f>
         <v>Sydney - Summary</v>
       </c>
       <c r="C166" s="12" t="s">
@@ -38999,12 +39016,12 @@
       <c r="T166" s="11"/>
       <c r="U166" s="11"/>
     </row>
-    <row r="167" spans="1:21" ht="405" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="362.5">
       <c r="A167" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B167" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>B32&amp;" - "&amp;"Summary"</f>
         <v>Auckland - Summary</v>
       </c>
       <c r="C167" s="15" t="s">
@@ -39032,7 +39049,7 @@
       <c r="T167" s="11"/>
       <c r="U167" s="11"/>
     </row>
-    <row r="168" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" s="2" customFormat="1">
       <c r="A168" s="28" t="s">
         <v>146</v>
       </c>
@@ -39088,7 +39105,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" s="2" customFormat="1" ht="29">
       <c r="A169" s="28" t="s">
         <v>146</v>
       </c>
@@ -39103,7 +39120,7 @@
       </c>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21">
       <c r="A170" s="19" t="s">
         <v>146</v>
       </c>
@@ -39162,7 +39179,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21">
       <c r="A171" s="19" t="s">
         <v>146</v>
       </c>
@@ -39221,7 +39238,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21">
       <c r="A172" s="19" t="s">
         <v>146</v>
       </c>
@@ -39394,26 +39411,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAA5C4-0A70-4221-8832-C196189F112B}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="3" customWidth="1"/>
-    <col min="4" max="6" width="23.140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="73.5703125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="23.1796875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="45.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="73.54296875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>737</v>
       </c>
@@ -39442,7 +39459,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="409.5" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>1497</v>
       </c>
@@ -39469,7 +39486,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="58">
       <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
@@ -39498,7 +39515,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="72.5">
       <c r="A4" s="2" t="s">
         <v>181</v>
       </c>
@@ -39527,7 +39544,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="2" t="s">
         <v>187</v>
       </c>
@@ -39556,7 +39573,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="43.5">
       <c r="A6" s="2" t="s">
         <v>188</v>
       </c>
@@ -39585,7 +39602,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="90.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>189</v>
       </c>
@@ -39614,7 +39631,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="72.5">
       <c r="A8" s="2" t="s">
         <v>190</v>
       </c>
@@ -39643,7 +39660,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="145">
       <c r="A9" s="2" t="s">
         <v>191</v>
       </c>
@@ -39672,7 +39689,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="58">
       <c r="A10" s="2" t="s">
         <v>192</v>
       </c>
@@ -39701,7 +39718,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="58">
       <c r="A11" s="2" t="s">
         <v>180</v>
       </c>
@@ -39730,7 +39747,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="58">
       <c r="A12" s="2" t="s">
         <v>193</v>
       </c>
@@ -39759,7 +39776,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="87">
       <c r="A13" s="2" t="s">
         <v>194</v>
       </c>
@@ -39788,7 +39805,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="58">
       <c r="A14" s="2" t="s">
         <v>195</v>
       </c>
@@ -39817,7 +39834,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="130.5">
       <c r="A15" s="2" t="s">
         <v>196</v>
       </c>
@@ -39846,7 +39863,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="58">
       <c r="A16" s="2" t="s">
         <v>197</v>
       </c>
@@ -39875,7 +39892,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="87">
       <c r="A17" s="2" t="s">
         <v>198</v>
       </c>
@@ -39904,7 +39921,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="58">
       <c r="A18" s="2" t="s">
         <v>199</v>
       </c>
@@ -39933,7 +39950,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="116">
       <c r="A19" s="2" t="s">
         <v>200</v>
       </c>
@@ -39962,7 +39979,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="116">
       <c r="A20" s="2" t="s">
         <v>201</v>
       </c>
@@ -39991,7 +40008,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="116">
       <c r="A21" s="2" t="s">
         <v>202</v>
       </c>
@@ -40020,7 +40037,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="43.5">
       <c r="A22" s="2" t="s">
         <v>203</v>
       </c>
@@ -40049,7 +40066,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="72.5">
       <c r="A23" s="2" t="s">
         <v>204</v>
       </c>
@@ -40078,7 +40095,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="43.5">
       <c r="A24" s="2" t="s">
         <v>205</v>
       </c>
@@ -40107,7 +40124,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="29">
       <c r="A25" s="2" t="s">
         <v>178</v>
       </c>
@@ -40136,7 +40153,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="29">
       <c r="A26" s="2" t="s">
         <v>206</v>
       </c>
@@ -40165,7 +40182,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="72.5">
       <c r="A27" s="2" t="s">
         <v>207</v>
       </c>
@@ -40208,16 +40225,16 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
     <col min="5" max="5" width="67" customWidth="1"/>
-    <col min="6" max="6" width="78.7109375" customWidth="1"/>
+    <col min="6" max="6" width="78.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -40238,7 +40255,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>338</v>
       </c>
@@ -40255,7 +40272,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>338</v>
       </c>
@@ -40275,7 +40292,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -40295,7 +40312,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -40315,7 +40332,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>325</v>
       </c>
@@ -40332,7 +40349,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>325</v>
       </c>
@@ -40352,7 +40369,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>325</v>
       </c>
@@ -40372,7 +40389,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>325</v>
       </c>
@@ -40392,7 +40409,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>843</v>
       </c>
@@ -40409,7 +40426,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>843</v>
       </c>
@@ -40429,7 +40446,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>843</v>
       </c>
@@ -40449,7 +40466,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>843</v>
       </c>
@@ -40469,7 +40486,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -40486,7 +40503,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -40506,7 +40523,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -40526,7 +40543,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -40546,7 +40563,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -40563,7 +40580,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -40583,7 +40600,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -40603,7 +40620,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -40623,7 +40640,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="F22" s="49"/>
     </row>
   </sheetData>
@@ -40643,17 +40660,17 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
     <col min="2" max="3" width="39" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="47" hidden="1" customWidth="1"/>
-    <col min="5" max="20" width="6.7109375" style="47" customWidth="1"/>
-    <col min="21" max="21" width="108.28515625" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="11.54296875" style="47" hidden="1" customWidth="1"/>
+    <col min="5" max="20" width="6.7265625" style="47" customWidth="1"/>
+    <col min="21" max="21" width="108.26953125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="24" t="s">
         <v>737</v>
       </c>
@@ -40688,7 +40705,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="78" customHeight="1">
       <c r="A3" s="25"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -40743,7 +40760,7 @@
       </c>
       <c r="U3" s="27"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>186</v>
       </c>
@@ -40808,7 +40825,7 @@
       </c>
       <c r="U4" s="39"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>181</v>
       </c>
@@ -40873,7 +40890,7 @@
       </c>
       <c r="U5" s="42"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>187</v>
       </c>
@@ -40938,7 +40955,7 @@
       </c>
       <c r="U6" s="42"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>188</v>
       </c>
@@ -41003,7 +41020,7 @@
       </c>
       <c r="U7" s="42"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>189</v>
       </c>
@@ -41068,7 +41085,7 @@
       </c>
       <c r="U8" s="42"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>190</v>
       </c>
@@ -41133,7 +41150,7 @@
       </c>
       <c r="U9" s="42"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="40" t="s">
         <v>191</v>
       </c>
@@ -41198,7 +41215,7 @@
       </c>
       <c r="U10" s="42"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="40" t="s">
         <v>192</v>
       </c>
@@ -41263,7 +41280,7 @@
       </c>
       <c r="U11" s="42"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>180</v>
       </c>
@@ -41328,7 +41345,7 @@
       </c>
       <c r="U12" s="42"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="40" t="s">
         <v>193</v>
       </c>
@@ -41393,7 +41410,7 @@
       </c>
       <c r="U13" s="42"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="40" t="s">
         <v>194</v>
       </c>
@@ -41456,7 +41473,7 @@
       </c>
       <c r="U14" s="42"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="40" t="s">
         <v>195</v>
       </c>
@@ -41521,7 +41538,7 @@
       </c>
       <c r="U15" s="42"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" customHeight="1">
       <c r="A16" s="40" t="s">
         <v>196</v>
       </c>
@@ -41588,7 +41605,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>197</v>
       </c>
@@ -41653,7 +41670,7 @@
       </c>
       <c r="U17" s="42"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>198</v>
       </c>
@@ -41718,7 +41735,7 @@
       </c>
       <c r="U18" s="42"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="40" t="s">
         <v>199</v>
       </c>
@@ -41783,7 +41800,7 @@
       </c>
       <c r="U19" s="42"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="40" t="s">
         <v>200</v>
       </c>
@@ -41848,7 +41865,7 @@
       </c>
       <c r="U20" s="42"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="40" t="s">
         <v>201</v>
       </c>
@@ -41913,7 +41930,7 @@
       </c>
       <c r="U21" s="42"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="40" t="s">
         <v>202</v>
       </c>
@@ -41978,7 +41995,7 @@
       </c>
       <c r="U22" s="42"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="40" t="s">
         <v>203</v>
       </c>
@@ -42043,7 +42060,7 @@
       </c>
       <c r="U23" s="42"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="40" t="s">
         <v>204</v>
       </c>
@@ -42108,7 +42125,7 @@
       </c>
       <c r="U24" s="42"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="40" t="s">
         <v>205</v>
       </c>
@@ -42173,7 +42190,7 @@
       </c>
       <c r="U25" s="42"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="40" t="s">
         <v>178</v>
       </c>
@@ -42238,7 +42255,7 @@
       </c>
       <c r="U26" s="42"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="40" t="s">
         <v>206</v>
       </c>
@@ -42303,7 +42320,7 @@
       </c>
       <c r="U27" s="42"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="43" t="s">
         <v>207</v>
       </c>
@@ -42368,7 +42385,7 @@
       </c>
       <c r="U28" s="46"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="E29" s="47">
         <f>COUNTIF(E4:E28,"Yes")</f>
         <v>25</v>

--- a/_report_configuration.xlsx
+++ b/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/analysis/global_scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3590" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59C73C8-5656-4B52-8044-6E11CB4A6263}"/>
+  <xr:revisionPtr revIDLastSave="3591" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE7FB8E8-2C12-4748-BB2B-13F70055B76E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_web" sheetId="1" r:id="rId1"/>
@@ -7873,11 +7873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
+      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13375,7 +13375,7 @@
         <v>221</v>
       </c>
       <c r="F93">
-        <f t="shared" si="8"/>
+        <f>F84</f>
         <v>210</v>
       </c>
       <c r="G93">
@@ -30925,11 +30925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_report_configuration.xlsx
+++ b/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/analysis/global_scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3591" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE7FB8E8-2C12-4748-BB2B-13F70055B76E}"/>
+  <xr:revisionPtr revIDLastSave="3597" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA39A20-46FF-43CA-A2AD-2B06E6005B6B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_web" sheetId="1" r:id="rId1"/>
@@ -7873,11 +7873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomRight" activeCell="S192" sqref="S192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13255,7 +13255,7 @@
         <v>221</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91:F93" si="8">F82</f>
+        <f t="shared" ref="F91:F92" si="8">F82</f>
         <v>173</v>
       </c>
       <c r="G91">
@@ -30926,10 +30926,10 @@
   <dimension ref="A1:U172"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomRight" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39394,11 +39394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAA5C4-0A70-4221-8832-C196189F112B}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39407,7 +39407,7 @@
     <col min="2" max="2" width="47.7109375" style="3" customWidth="1"/>
     <col min="3" max="5" width="23.140625" style="16" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="73.5703125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
